--- a/JupyterNotebooks/AvgHW/Alpha2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,19 +635,19 @@
         <v>0.9999859574520517</v>
       </c>
       <c r="F3">
+        <v>1.000056170018698</v>
+      </c>
+      <c r="G3">
         <v>0.9999859574520517</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.9999625541002868</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.000030893185215</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.9999859574520517</v>
-      </c>
-      <c r="J3">
-        <v>1.000056170018698</v>
       </c>
       <c r="K3">
         <v>0.9999859574520517</v>
@@ -728,7 +680,7 @@
         <v>1.000001248276726</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -745,19 +697,19 @@
         <v>0.9999728922909594</v>
       </c>
       <c r="F4">
+        <v>1.000108435056343</v>
+      </c>
+      <c r="G4">
         <v>0.9999728922909594</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.9999277104995293</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.000059639467257</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.9999728922909594</v>
-      </c>
-      <c r="J4">
-        <v>1.000108435056343</v>
       </c>
       <c r="K4">
         <v>0.9999728922909594</v>
@@ -790,7 +742,7 @@
         <v>1.000002410316001</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -807,19 +759,19 @@
         <v>0.9999480458420169</v>
       </c>
       <c r="F5">
+        <v>1.000207804953348</v>
+      </c>
+      <c r="G5">
         <v>0.9999480458420169</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.9998614634814975</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.000114293337652</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.9999480458420169</v>
-      </c>
-      <c r="J5">
-        <v>1.000207804953348</v>
       </c>
       <c r="K5">
         <v>0.9999480458420169</v>
@@ -852,7 +804,7 @@
         <v>1.000004616549758</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -869,19 +821,19 @@
         <v>0.9999238050059523</v>
       </c>
       <c r="F6">
+        <v>1.000304784350101</v>
+      </c>
+      <c r="G6">
         <v>0.9999238050059523</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.9997968156606689</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.000167627399943</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9999238050059523</v>
-      </c>
-      <c r="J6">
-        <v>1.000304784350101</v>
       </c>
       <c r="K6">
         <v>0.9999238050059523</v>
@@ -914,7 +866,7 @@
         <v>1.000006773738095</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -931,19 +883,19 @@
         <v>0.9999991920296541</v>
       </c>
       <c r="F7">
+        <v>1.000003231501903</v>
+      </c>
+      <c r="G7">
         <v>0.9999991920296541</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.9999978462512874</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.00000177705273</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.9999991920296541</v>
-      </c>
-      <c r="J7">
-        <v>1.000003231501903</v>
       </c>
       <c r="K7">
         <v>0.9999991920296541</v>
@@ -976,7 +928,7 @@
         <v>1.000000071815814</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -993,19 +945,19 @@
         <v>0.999998600210235</v>
       </c>
       <c r="F8">
+        <v>1.000005599438328</v>
+      </c>
+      <c r="G8">
         <v>0.999998600210235</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.9999962675920931</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.000003079251923</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.999998600210235</v>
-      </c>
-      <c r="J8">
-        <v>1.000005599438328</v>
       </c>
       <c r="K8">
         <v>0.999998600210235</v>
@@ -1038,7 +990,7 @@
         <v>1.000000124485508</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1055,19 +1007,19 @@
         <v>0.999998205951915</v>
       </c>
       <c r="F9">
+        <v>1.000007174403128</v>
+      </c>
+      <c r="G9">
         <v>0.999998205951915</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.999995217945342</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.000003946397218</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.999998205951915</v>
-      </c>
-      <c r="J9">
-        <v>1.000007174403128</v>
       </c>
       <c r="K9">
         <v>0.999998205951915</v>
@@ -1100,7 +1052,7 @@
         <v>1.000000159433572</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1117,19 +1069,19 @@
         <v>0.9999959322956574</v>
       </c>
       <c r="F10">
+        <v>1.00001626848884</v>
+      </c>
+      <c r="G10">
         <v>0.9999959322956574</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.9999891538815278</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.000008947696338</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.9999959322956574</v>
-      </c>
-      <c r="J10">
-        <v>1.00001626848884</v>
       </c>
       <c r="K10">
         <v>0.9999959322956574</v>
@@ -1162,7 +1114,7 @@
         <v>1.000000361158946</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1179,19 +1131,19 @@
         <v>0.9999940353188503</v>
       </c>
       <c r="F11">
+        <v>1.000023854654492</v>
+      </c>
+      <c r="G11">
         <v>0.9999940353188503</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.9999840959989149</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.000013119193242</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.9999940353188503</v>
-      </c>
-      <c r="J11">
-        <v>1.000023854654492</v>
       </c>
       <c r="K11">
         <v>0.9999940353188503</v>
@@ -1224,7 +1176,7 @@
         <v>1.000000529300533</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1241,19 +1193,19 @@
         <v>0.9999441412042449</v>
       </c>
       <c r="F12">
+        <v>1.000223439760814</v>
+      </c>
+      <c r="G12">
         <v>0.9999441412042449</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.9998510489799155</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.000122889135115</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.9999441412042449</v>
-      </c>
-      <c r="J12">
-        <v>1.000223439760814</v>
       </c>
       <c r="K12">
         <v>0.9999441412042449</v>
@@ -1286,7 +1238,7 @@
         <v>1.000004966914763</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999851892840661</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="D13">
         <v>1.000059245806839</v>
       </c>
       <c r="E13">
-        <v>0.9999851892840661</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="F13">
-        <v>0.9999851892840661</v>
+        <v>1.000059245806839</v>
       </c>
       <c r="G13">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="H13">
         <v>0.9999605057015554</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.000032583891463</v>
       </c>
-      <c r="I13">
-        <v>0.9999851892840661</v>
-      </c>
       <c r="J13">
-        <v>1.000059245806839</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="K13">
-        <v>0.9999851892840661</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="L13">
-        <v>0.9999851892840661</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="M13">
         <v>1.000022217545453</v>
@@ -1348,7 +1300,7 @@
         <v>1.000001317208676</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,25 +1311,25 @@
         <v>0.99965257687344</v>
       </c>
       <c r="D14">
-        <v>1.001389717296724</v>
+        <v>1.001389717296725</v>
       </c>
       <c r="E14">
         <v>0.99965257687344</v>
       </c>
       <c r="F14">
+        <v>1.001389717296725</v>
+      </c>
+      <c r="G14">
         <v>0.99965257687344</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.9990735286551363</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.000764333309126</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.99965257687344</v>
-      </c>
-      <c r="J14">
-        <v>1.001389717296724</v>
       </c>
       <c r="K14">
         <v>0.99965257687344</v>
@@ -1410,7 +1362,7 @@
         <v>1.000030884980218</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1427,19 +1379,19 @@
         <v>0.9999048832169725</v>
       </c>
       <c r="F15">
+        <v>1.000380462842394</v>
+      </c>
+      <c r="G15">
         <v>0.9999048832169725</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.9997463593638564</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.000209256283895</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.9999048832169725</v>
-      </c>
-      <c r="J15">
-        <v>1.000380462842394</v>
       </c>
       <c r="K15">
         <v>0.9999048832169725</v>
@@ -1472,7 +1424,7 @@
         <v>1.000008454690177</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.99999994197472</v>
+        <v>0.9997262275348012</v>
       </c>
       <c r="D16">
-        <v>1.000000231887966</v>
+        <v>1.001095085486933</v>
       </c>
       <c r="E16">
-        <v>0.99999994197472</v>
+        <v>0.9997262275348012</v>
       </c>
       <c r="F16">
-        <v>0.99999994197472</v>
+        <v>1.001095085486933</v>
       </c>
       <c r="G16">
-        <v>0.9999998460186614</v>
+        <v>0.9997262275348012</v>
       </c>
       <c r="H16">
-        <v>1.000000127231889</v>
+        <v>0.9992699437974106</v>
       </c>
       <c r="I16">
-        <v>0.99999994197472</v>
+        <v>1.000602299212972</v>
       </c>
       <c r="J16">
-        <v>1.000000231887966</v>
+        <v>0.9997262275348012</v>
       </c>
       <c r="K16">
-        <v>0.99999994197472</v>
+        <v>0.9997262275348012</v>
       </c>
       <c r="L16">
-        <v>0.99999994197472</v>
+        <v>0.9997262275348012</v>
       </c>
       <c r="M16">
-        <v>1.000000086931343</v>
+        <v>1.000410656510867</v>
       </c>
       <c r="N16">
-        <v>1.000000086931343</v>
+        <v>1.000410656510867</v>
       </c>
       <c r="O16">
-        <v>1.000000100364858</v>
+        <v>1.000474537411569</v>
       </c>
       <c r="P16">
-        <v>1.000000038612469</v>
+        <v>1.000182513518845</v>
       </c>
       <c r="Q16">
-        <v>1.000000038612469</v>
+        <v>1.000182513518845</v>
       </c>
       <c r="R16">
-        <v>1.000000014453031</v>
+        <v>1.000068442022834</v>
       </c>
       <c r="S16">
-        <v>1.000000014453031</v>
+        <v>1.000068442022834</v>
       </c>
       <c r="T16">
-        <v>1.000000005177113</v>
+        <v>1.00002433518362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999987715042993</v>
+        <v>0.9997763786839177</v>
       </c>
       <c r="D17">
-        <v>1.000004911836918</v>
+        <v>1.000894481776995</v>
       </c>
       <c r="E17">
-        <v>0.9999987715042993</v>
+        <v>0.9997763786839177</v>
       </c>
       <c r="F17">
-        <v>0.9999987715042993</v>
+        <v>1.000894481776995</v>
       </c>
       <c r="G17">
-        <v>0.9999967257365153</v>
+        <v>0.9997763786839177</v>
       </c>
       <c r="H17">
-        <v>1.000002701304022</v>
+        <v>0.9994036792797661</v>
       </c>
       <c r="I17">
-        <v>0.9999987715042993</v>
+        <v>1.000491966826921</v>
       </c>
       <c r="J17">
-        <v>1.000004911836918</v>
+        <v>0.9997763786839177</v>
       </c>
       <c r="K17">
-        <v>0.9999987715042993</v>
+        <v>0.9997763786839177</v>
       </c>
       <c r="L17">
-        <v>0.9999987715042993</v>
+        <v>0.9997763786839177</v>
       </c>
       <c r="M17">
-        <v>1.000001841670609</v>
+        <v>1.000335430230456</v>
       </c>
       <c r="N17">
-        <v>1.000001841670609</v>
+        <v>1.000335430230456</v>
       </c>
       <c r="O17">
-        <v>1.00000212821508</v>
+        <v>1.000387609095944</v>
       </c>
       <c r="P17">
-        <v>1.000000818281839</v>
+        <v>1.000149079714943</v>
       </c>
       <c r="Q17">
-        <v>1.000000818281839</v>
+        <v>1.000149079714943</v>
       </c>
       <c r="R17">
-        <v>1.000000306587454</v>
+        <v>1.000055904457187</v>
       </c>
       <c r="S17">
-        <v>1.000000306587454</v>
+        <v>1.000055904457187</v>
       </c>
       <c r="T17">
-        <v>1.000000108898392</v>
+        <v>1.000019877322573</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999956766453189</v>
+        <v>0.9998779851946219</v>
       </c>
       <c r="D18">
-        <v>1.000017293542942</v>
+        <v>1.000488060632227</v>
       </c>
       <c r="E18">
-        <v>0.9999956766453189</v>
+        <v>0.9998779851946219</v>
       </c>
       <c r="F18">
-        <v>0.9999956766453189</v>
+        <v>1.000488060632227</v>
       </c>
       <c r="G18">
-        <v>0.9999884713419886</v>
+        <v>0.9998779851946219</v>
       </c>
       <c r="H18">
-        <v>1.000009510580651</v>
+        <v>0.9996746264332838</v>
       </c>
       <c r="I18">
-        <v>0.9999956766453189</v>
+        <v>1.000268433617571</v>
       </c>
       <c r="J18">
-        <v>1.000017293542942</v>
+        <v>0.9998779851946219</v>
       </c>
       <c r="K18">
-        <v>0.9999956766453189</v>
+        <v>0.9998779851946219</v>
       </c>
       <c r="L18">
-        <v>0.9999956766453189</v>
+        <v>0.9998779851946219</v>
       </c>
       <c r="M18">
-        <v>1.000006485094131</v>
+        <v>1.000183022913424</v>
       </c>
       <c r="N18">
-        <v>1.000006485094131</v>
+        <v>1.000183022913424</v>
       </c>
       <c r="O18">
-        <v>1.000007493589637</v>
+        <v>1.00021149314814</v>
       </c>
       <c r="P18">
-        <v>1.00000288227786</v>
+        <v>1.000081343673824</v>
       </c>
       <c r="Q18">
-        <v>1.00000288227786</v>
+        <v>1.000081343673824</v>
       </c>
       <c r="R18">
-        <v>1.000001080869725</v>
+        <v>1.000030504054023</v>
       </c>
       <c r="S18">
-        <v>1.000001080869725</v>
+        <v>1.000030504054023</v>
       </c>
       <c r="T18">
-        <v>1.00000038423359</v>
+        <v>1.000010846044491</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="D19">
+        <v>1.000521180582279</v>
+      </c>
+      <c r="E19">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="F19">
+        <v>1.000521180582279</v>
+      </c>
+      <c r="G19">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="H19">
+        <v>0.9996525459808102</v>
+      </c>
+      <c r="I19">
+        <v>1.000286653508274</v>
+      </c>
+      <c r="J19">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="K19">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="L19">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="M19">
+        <v>1.000195441918584</v>
+      </c>
+      <c r="N19">
+        <v>1.000195441918584</v>
+      </c>
+      <c r="O19">
+        <v>1.000225845781814</v>
+      </c>
+      <c r="P19">
+        <v>1.000086862364018</v>
+      </c>
+      <c r="Q19">
+        <v>1.000086862364018</v>
+      </c>
+      <c r="R19">
+        <v>1.000032572586736</v>
+      </c>
+      <c r="S19">
+        <v>1.000032572586736</v>
+      </c>
+      <c r="T19">
+        <v>1.000011581639338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="D20">
+        <v>1.000000231887966</v>
+      </c>
+      <c r="E20">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="F20">
+        <v>1.000000231887966</v>
+      </c>
+      <c r="G20">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="H20">
+        <v>0.9999998460186614</v>
+      </c>
+      <c r="I20">
+        <v>1.000000127231889</v>
+      </c>
+      <c r="J20">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="K20">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="L20">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="M20">
+        <v>1.000000086931343</v>
+      </c>
+      <c r="N20">
+        <v>1.000000086931343</v>
+      </c>
+      <c r="O20">
+        <v>1.000000100364858</v>
+      </c>
+      <c r="P20">
+        <v>1.000000038612469</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000038612469</v>
+      </c>
+      <c r="R20">
+        <v>1.000000014453032</v>
+      </c>
+      <c r="S20">
+        <v>1.000000014453032</v>
+      </c>
+      <c r="T20">
+        <v>1.000000005177113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="D21">
+        <v>1.000004911836918</v>
+      </c>
+      <c r="E21">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="F21">
+        <v>1.000004911836918</v>
+      </c>
+      <c r="G21">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="H21">
+        <v>0.9999967257365153</v>
+      </c>
+      <c r="I21">
+        <v>1.000002701304022</v>
+      </c>
+      <c r="J21">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="K21">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="L21">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="M21">
+        <v>1.000001841670609</v>
+      </c>
+      <c r="N21">
+        <v>1.000001841670609</v>
+      </c>
+      <c r="O21">
+        <v>1.00000212821508</v>
+      </c>
+      <c r="P21">
+        <v>1.000000818281839</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000818281839</v>
+      </c>
+      <c r="R21">
+        <v>1.000000306587454</v>
+      </c>
+      <c r="S21">
+        <v>1.000000306587454</v>
+      </c>
+      <c r="T21">
+        <v>1.000000108898392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="D22">
+        <v>1.000017293542942</v>
+      </c>
+      <c r="E22">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="F22">
+        <v>1.000017293542942</v>
+      </c>
+      <c r="G22">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="H22">
+        <v>0.9999884713419886</v>
+      </c>
+      <c r="I22">
+        <v>1.000009510580651</v>
+      </c>
+      <c r="J22">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="K22">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="L22">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="M22">
+        <v>1.000006485094131</v>
+      </c>
+      <c r="N22">
+        <v>1.000006485094131</v>
+      </c>
+      <c r="O22">
+        <v>1.000007493589637</v>
+      </c>
+      <c r="P22">
+        <v>1.00000288227786</v>
+      </c>
+      <c r="Q22">
+        <v>1.00000288227786</v>
+      </c>
+      <c r="R22">
+        <v>1.000001080869725</v>
+      </c>
+      <c r="S22">
+        <v>1.000001080869725</v>
+      </c>
+      <c r="T22">
+        <v>1.00000038423359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9999898716112084</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1.000040512299778</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>0.9999898716112084</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>1.000040512299778</v>
+      </c>
+      <c r="G23">
         <v>0.9999898716112084</v>
       </c>
-      <c r="G19">
+      <c r="H23">
         <v>0.9999729917980168</v>
       </c>
-      <c r="H19">
+      <c r="I23">
         <v>1.000022282101361</v>
       </c>
-      <c r="I19">
+      <c r="J23">
         <v>0.9999898716112084</v>
       </c>
-      <c r="J19">
-        <v>1.000040512299778</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9999898716112084</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9999898716112084</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000015191955493</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000015191955493</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000017555337449</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000006751840732</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000006751840732</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000002531783351</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000002531783351</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.00000090017213</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999859574520517</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="D3">
-        <v>1.000056170018698</v>
+        <v>1.000534067154176</v>
       </c>
       <c r="E3">
-        <v>0.9999859574520517</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="F3">
-        <v>1.000056170018698</v>
+        <v>1.000534067154176</v>
       </c>
       <c r="G3">
-        <v>0.9999859574520517</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="H3">
-        <v>0.9999625541002868</v>
+        <v>0.9996439549279525</v>
       </c>
       <c r="I3">
-        <v>1.000030893185215</v>
+        <v>1.000293739380404</v>
       </c>
       <c r="J3">
-        <v>0.9999859574520517</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="K3">
-        <v>0.9999859574520517</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="L3">
-        <v>0.9999859574520517</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="M3">
-        <v>1.000021063735375</v>
+        <v>1.000200274935158</v>
       </c>
       <c r="N3">
-        <v>1.000021063735375</v>
+        <v>1.000200274935158</v>
       </c>
       <c r="O3">
-        <v>1.000024340218655</v>
+        <v>1.00023142975024</v>
       </c>
       <c r="P3">
-        <v>1.000009361640934</v>
+        <v>1.000089010862152</v>
       </c>
       <c r="Q3">
-        <v>1.000009361640934</v>
+        <v>1.000089010862152</v>
       </c>
       <c r="R3">
-        <v>1.000003510593713</v>
+        <v>1.000033378825649</v>
       </c>
       <c r="S3">
-        <v>1.000003510593713</v>
+        <v>1.000033378825649</v>
       </c>
       <c r="T3">
-        <v>1.000001248276726</v>
+        <v>1.000011868268492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999728922909594</v>
+        <v>0.9998723685436031</v>
       </c>
       <c r="D4">
-        <v>1.000108435056343</v>
+        <v>1.00051052403093</v>
       </c>
       <c r="E4">
-        <v>0.9999728922909594</v>
+        <v>0.9998723685436031</v>
       </c>
       <c r="F4">
-        <v>1.000108435056343</v>
+        <v>1.00051052403093</v>
       </c>
       <c r="G4">
-        <v>0.9999728922909594</v>
+        <v>0.9998723685436031</v>
       </c>
       <c r="H4">
-        <v>0.9999277104995293</v>
+        <v>0.9996596504034673</v>
       </c>
       <c r="I4">
-        <v>1.000059639467257</v>
+        <v>1.000280789954344</v>
       </c>
       <c r="J4">
-        <v>0.9999728922909594</v>
+        <v>0.9998723685436031</v>
       </c>
       <c r="K4">
-        <v>0.9999728922909594</v>
+        <v>0.9998723685436031</v>
       </c>
       <c r="L4">
-        <v>0.9999728922909594</v>
+        <v>0.9998723685436031</v>
       </c>
       <c r="M4">
-        <v>1.000040663673651</v>
+        <v>1.000191446287266</v>
       </c>
       <c r="N4">
-        <v>1.000040663673651</v>
+        <v>1.000191446287266</v>
       </c>
       <c r="O4">
-        <v>1.000046988938186</v>
+        <v>1.000221227509626</v>
       </c>
       <c r="P4">
-        <v>1.000018073212754</v>
+        <v>1.000085087039378</v>
       </c>
       <c r="Q4">
-        <v>1.000018073212754</v>
+        <v>1.000085087039378</v>
       </c>
       <c r="R4">
-        <v>1.000006777982305</v>
+        <v>1.000031907415435</v>
       </c>
       <c r="S4">
-        <v>1.000006777982305</v>
+        <v>1.000031907415435</v>
       </c>
       <c r="T4">
-        <v>1.000002410316001</v>
+        <v>1.000011345003258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9999480458420169</v>
+        <v>0.9998553098382739</v>
       </c>
       <c r="D5">
-        <v>1.000207804953348</v>
+        <v>1.000578762506738</v>
       </c>
       <c r="E5">
-        <v>0.9999480458420169</v>
+        <v>0.9998553098382739</v>
       </c>
       <c r="F5">
-        <v>1.000207804953348</v>
+        <v>1.000578762506738</v>
       </c>
       <c r="G5">
-        <v>0.9999480458420169</v>
+        <v>0.9998553098382739</v>
       </c>
       <c r="H5">
-        <v>0.9998614634814975</v>
+        <v>0.999614158086253</v>
       </c>
       <c r="I5">
-        <v>1.000114293337652</v>
+        <v>1.000318325660378</v>
       </c>
       <c r="J5">
-        <v>0.9999480458420169</v>
+        <v>0.9998553098382739</v>
       </c>
       <c r="K5">
-        <v>0.9999480458420169</v>
+        <v>0.9998553098382739</v>
       </c>
       <c r="L5">
-        <v>0.9999480458420169</v>
+        <v>0.9998553098382739</v>
       </c>
       <c r="M5">
-        <v>1.000077925397683</v>
+        <v>1.000217036172506</v>
       </c>
       <c r="N5">
-        <v>1.000077925397683</v>
+        <v>1.000217036172506</v>
       </c>
       <c r="O5">
-        <v>1.000090048044339</v>
+        <v>1.00025079933513</v>
       </c>
       <c r="P5">
-        <v>1.000034632212461</v>
+        <v>1.000096460727762</v>
       </c>
       <c r="Q5">
-        <v>1.000034632212461</v>
+        <v>1.000096460727762</v>
       </c>
       <c r="R5">
-        <v>1.00001298561985</v>
+        <v>1.00003617300539</v>
       </c>
       <c r="S5">
-        <v>1.00001298561985</v>
+        <v>1.00003617300539</v>
       </c>
       <c r="T5">
-        <v>1.000004616549758</v>
+        <v>1.000012862628032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9999238050059523</v>
+        <v>0.9998448807954545</v>
       </c>
       <c r="D6">
-        <v>1.000304784350101</v>
+        <v>1.000620469204546</v>
       </c>
       <c r="E6">
-        <v>0.9999238050059523</v>
+        <v>0.9998448807954545</v>
       </c>
       <c r="F6">
-        <v>1.000304784350101</v>
+        <v>1.000620469204546</v>
       </c>
       <c r="G6">
-        <v>0.9999238050059523</v>
+        <v>0.9998448807954545</v>
       </c>
       <c r="H6">
-        <v>0.9997968156606689</v>
+        <v>0.9995863531818182</v>
       </c>
       <c r="I6">
-        <v>1.000167627399943</v>
+        <v>1.000341265852273</v>
       </c>
       <c r="J6">
-        <v>0.9999238050059523</v>
+        <v>0.9998448807954545</v>
       </c>
       <c r="K6">
-        <v>0.9999238050059523</v>
+        <v>0.9998448807954545</v>
       </c>
       <c r="L6">
-        <v>0.9999238050059523</v>
+        <v>0.9998448807954545</v>
       </c>
       <c r="M6">
-        <v>1.000114294678027</v>
+        <v>1.000232675</v>
       </c>
       <c r="N6">
-        <v>1.000114294678027</v>
+        <v>1.000232675</v>
       </c>
       <c r="O6">
-        <v>1.000132072251999</v>
+        <v>1.000268871950758</v>
       </c>
       <c r="P6">
-        <v>1.000050798120669</v>
+        <v>1.000103410265152</v>
       </c>
       <c r="Q6">
-        <v>1.000050798120669</v>
+        <v>1.000103410265152</v>
       </c>
       <c r="R6">
-        <v>1.000019049841989</v>
+        <v>1.000038777897727</v>
       </c>
       <c r="S6">
-        <v>1.000019049841989</v>
+        <v>1.000038777897727</v>
       </c>
       <c r="T6">
-        <v>1.000006773738095</v>
+        <v>1.0000137884375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999991920296541</v>
+        <v>1.000971033448061</v>
       </c>
       <c r="D7">
-        <v>1.000003231501903</v>
+        <v>0.9961158414231139</v>
       </c>
       <c r="E7">
-        <v>0.9999991920296541</v>
+        <v>1.000971033448061</v>
       </c>
       <c r="F7">
-        <v>1.000003231501903</v>
+        <v>0.9961158414231139</v>
       </c>
       <c r="G7">
-        <v>0.9999991920296541</v>
+        <v>1.000971033448061</v>
       </c>
       <c r="H7">
-        <v>0.9999978462512874</v>
+        <v>1.002589433108238</v>
       </c>
       <c r="I7">
-        <v>1.00000177705273</v>
+        <v>0.9978637183575093</v>
       </c>
       <c r="J7">
-        <v>0.9999991920296541</v>
+        <v>1.000971033448061</v>
       </c>
       <c r="K7">
-        <v>0.9999991920296541</v>
+        <v>1.000971033448061</v>
       </c>
       <c r="L7">
-        <v>0.9999991920296541</v>
+        <v>1.000971033448061</v>
       </c>
       <c r="M7">
-        <v>1.000001211765778</v>
+        <v>0.9985434374355875</v>
       </c>
       <c r="N7">
-        <v>1.000001211765778</v>
+        <v>0.9985434374355875</v>
       </c>
       <c r="O7">
-        <v>1.000001400194762</v>
+        <v>0.9983168644095614</v>
       </c>
       <c r="P7">
-        <v>1.000000538520404</v>
+        <v>0.999352636106412</v>
       </c>
       <c r="Q7">
-        <v>1.000000538520404</v>
+        <v>0.999352636106412</v>
       </c>
       <c r="R7">
-        <v>1.000000201897716</v>
+        <v>0.9997572354418243</v>
       </c>
       <c r="S7">
-        <v>1.000000201897716</v>
+        <v>0.9997572354418243</v>
       </c>
       <c r="T7">
-        <v>1.000000071815814</v>
+        <v>0.9999136822055074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999998600210235</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="D8">
-        <v>1.000005599438328</v>
+        <v>0.9961411315785661</v>
       </c>
       <c r="E8">
-        <v>0.999998600210235</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="F8">
-        <v>1.000005599438328</v>
+        <v>0.9961411315785661</v>
       </c>
       <c r="G8">
-        <v>0.999998600210235</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="H8">
-        <v>0.9999962675920931</v>
+        <v>1.00257257304429</v>
       </c>
       <c r="I8">
-        <v>1.000003079251923</v>
+        <v>0.9978776279829844</v>
       </c>
       <c r="J8">
-        <v>0.999998600210235</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="K8">
-        <v>0.999998600210235</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="L8">
-        <v>0.999998600210235</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="M8">
-        <v>1.000002099824281</v>
+        <v>0.9985529212418727</v>
       </c>
       <c r="N8">
-        <v>1.000002099824281</v>
+        <v>0.9985529212418727</v>
       </c>
       <c r="O8">
-        <v>1.000002426300162</v>
+        <v>0.99832782348891</v>
       </c>
       <c r="P8">
-        <v>1.000000933286266</v>
+        <v>0.9993568511296415</v>
       </c>
       <c r="Q8">
-        <v>1.000000933286266</v>
+        <v>0.9993568511296415</v>
       </c>
       <c r="R8">
-        <v>1.000000350017258</v>
+        <v>0.9997588160735258</v>
       </c>
       <c r="S8">
-        <v>1.000000350017258</v>
+        <v>0.9997588160735258</v>
       </c>
       <c r="T8">
-        <v>1.000000124485508</v>
+        <v>0.9999142442202297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999998205951915</v>
+        <v>1.000958780385353</v>
       </c>
       <c r="D9">
-        <v>1.000007174403128</v>
+        <v>0.9961648538001431</v>
       </c>
       <c r="E9">
-        <v>0.999998205951915</v>
+        <v>1.000958780385353</v>
       </c>
       <c r="F9">
-        <v>1.000007174403128</v>
+        <v>0.9961648538001431</v>
       </c>
       <c r="G9">
-        <v>0.999998205951915</v>
+        <v>1.000958780385353</v>
       </c>
       <c r="H9">
-        <v>0.999995217945342</v>
+        <v>1.002556758252714</v>
       </c>
       <c r="I9">
-        <v>1.000003946397218</v>
+        <v>0.997890675315681</v>
       </c>
       <c r="J9">
-        <v>0.999998205951915</v>
+        <v>1.000958780385353</v>
       </c>
       <c r="K9">
-        <v>0.999998205951915</v>
+        <v>1.000958780385353</v>
       </c>
       <c r="L9">
-        <v>0.999998205951915</v>
+        <v>1.000958780385353</v>
       </c>
       <c r="M9">
-        <v>1.000002690177522</v>
+        <v>0.9985618170927479</v>
       </c>
       <c r="N9">
-        <v>1.000002690177522</v>
+        <v>0.9985618170927479</v>
       </c>
       <c r="O9">
-        <v>1.00000310891742</v>
+        <v>0.998338103167059</v>
       </c>
       <c r="P9">
-        <v>1.000001195435653</v>
+        <v>0.9993608048569497</v>
       </c>
       <c r="Q9">
-        <v>1.000001195435653</v>
+        <v>0.9993608048569497</v>
       </c>
       <c r="R9">
-        <v>1.000000448064718</v>
+        <v>0.9997602987390504</v>
       </c>
       <c r="S9">
-        <v>1.000000448064718</v>
+        <v>0.9997602987390504</v>
       </c>
       <c r="T9">
-        <v>1.000000159433572</v>
+        <v>0.999914771420766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999959322956574</v>
+        <v>1.000949653009495</v>
       </c>
       <c r="D10">
-        <v>1.00001626848884</v>
+        <v>0.9962013628874793</v>
       </c>
       <c r="E10">
-        <v>0.9999959322956574</v>
+        <v>1.000949653009495</v>
       </c>
       <c r="F10">
-        <v>1.00001626848884</v>
+        <v>0.9962013628874793</v>
       </c>
       <c r="G10">
-        <v>0.9999959322956574</v>
+        <v>1.000949653009495</v>
       </c>
       <c r="H10">
-        <v>0.9999891538815278</v>
+        <v>1.002532418944253</v>
       </c>
       <c r="I10">
-        <v>1.000008947696338</v>
+        <v>0.9979107554950888</v>
       </c>
       <c r="J10">
-        <v>0.9999959322956574</v>
+        <v>1.000949653009495</v>
       </c>
       <c r="K10">
-        <v>0.9999959322956574</v>
+        <v>1.000949653009495</v>
       </c>
       <c r="L10">
-        <v>0.9999959322956574</v>
+        <v>1.000949653009495</v>
       </c>
       <c r="M10">
-        <v>1.000006100392249</v>
+        <v>0.9985755079484874</v>
       </c>
       <c r="N10">
-        <v>1.000006100392249</v>
+        <v>0.9985755079484874</v>
       </c>
       <c r="O10">
-        <v>1.000007049493612</v>
+        <v>0.9983539237973545</v>
       </c>
       <c r="P10">
-        <v>1.000002711026718</v>
+        <v>0.99936688963549</v>
       </c>
       <c r="Q10">
-        <v>1.000002711026718</v>
+        <v>0.99936688963549</v>
       </c>
       <c r="R10">
-        <v>1.000001016343953</v>
+        <v>0.9997625804789914</v>
       </c>
       <c r="S10">
-        <v>1.000001016343953</v>
+        <v>0.9997625804789914</v>
       </c>
       <c r="T10">
-        <v>1.000000361158946</v>
+        <v>0.9999155827258847</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999940353188503</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="D11">
-        <v>1.000023854654492</v>
+        <v>1.000044849772309</v>
       </c>
       <c r="E11">
-        <v>0.9999940353188503</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="F11">
-        <v>1.000023854654492</v>
+        <v>1.000044849772309</v>
       </c>
       <c r="G11">
-        <v>0.9999940353188503</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="H11">
-        <v>0.9999840959989149</v>
+        <v>0.9999701003848918</v>
       </c>
       <c r="I11">
-        <v>1.000013119193242</v>
+        <v>1.000024667336788</v>
       </c>
       <c r="J11">
-        <v>0.9999940353188503</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="K11">
-        <v>0.9999940353188503</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="L11">
-        <v>0.9999940353188503</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="M11">
-        <v>1.000008944986671</v>
+        <v>1.000016818770493</v>
       </c>
       <c r="N11">
-        <v>1.000008944986671</v>
+        <v>1.000016818770493</v>
       </c>
       <c r="O11">
-        <v>1.000010336388861</v>
+        <v>1.000019434959258</v>
       </c>
       <c r="P11">
-        <v>1.000003975097398</v>
+        <v>1.00000747510322</v>
       </c>
       <c r="Q11">
-        <v>1.000003975097398</v>
+        <v>1.00000747510322</v>
       </c>
       <c r="R11">
-        <v>1.000001490152761</v>
+        <v>1.000002803269584</v>
       </c>
       <c r="S11">
-        <v>1.000001490152761</v>
+        <v>1.000002803269584</v>
       </c>
       <c r="T11">
-        <v>1.000000529300533</v>
+        <v>1.000000996800003</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9999441412042449</v>
+        <v>0.9999981200538998</v>
       </c>
       <c r="D12">
-        <v>1.000223439760814</v>
+        <v>1.000007519206475</v>
       </c>
       <c r="E12">
-        <v>0.9999441412042449</v>
+        <v>0.9999981200538998</v>
       </c>
       <c r="F12">
-        <v>1.000223439760814</v>
+        <v>1.000007519206475</v>
       </c>
       <c r="G12">
-        <v>0.9999441412042449</v>
+        <v>0.9999981200538998</v>
       </c>
       <c r="H12">
-        <v>0.9998510489799155</v>
+        <v>0.9999949877128932</v>
       </c>
       <c r="I12">
-        <v>1.000122889135115</v>
+        <v>1.000004135399058</v>
       </c>
       <c r="J12">
-        <v>0.9999441412042449</v>
+        <v>0.9999981200538998</v>
       </c>
       <c r="K12">
-        <v>0.9999441412042449</v>
+        <v>0.9999981200538998</v>
       </c>
       <c r="L12">
-        <v>0.9999441412042449</v>
+        <v>0.9999981200538998</v>
       </c>
       <c r="M12">
-        <v>1.00008379048253</v>
+        <v>1.000002819630188</v>
       </c>
       <c r="N12">
-        <v>1.00008379048253</v>
+        <v>1.000002819630188</v>
       </c>
       <c r="O12">
-        <v>1.000096823366725</v>
+        <v>1.000003258219811</v>
       </c>
       <c r="P12">
-        <v>1.000037240723102</v>
+        <v>1.000001253104758</v>
       </c>
       <c r="Q12">
-        <v>1.000037240723102</v>
+        <v>1.000001253104758</v>
       </c>
       <c r="R12">
-        <v>1.000013965843387</v>
+        <v>1.000000469842044</v>
       </c>
       <c r="S12">
-        <v>1.000013965843387</v>
+        <v>1.000000469842044</v>
       </c>
       <c r="T12">
-        <v>1.000004966914763</v>
+        <v>1.000000167080021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999985189284066</v>
+        <v>0.9999950730455114</v>
       </c>
       <c r="D13">
-        <v>1.000059245806839</v>
+        <v>1.000019697498048</v>
       </c>
       <c r="E13">
-        <v>0.999985189284066</v>
+        <v>0.9999950730455114</v>
       </c>
       <c r="F13">
-        <v>1.000059245806839</v>
+        <v>1.000019697498048</v>
       </c>
       <c r="G13">
-        <v>0.999985189284066</v>
+        <v>0.9999950730455114</v>
       </c>
       <c r="H13">
-        <v>0.9999605057015554</v>
+        <v>0.9999868636181346</v>
       </c>
       <c r="I13">
-        <v>1.000032583891463</v>
+        <v>1.000010839061606</v>
       </c>
       <c r="J13">
-        <v>0.999985189284066</v>
+        <v>0.9999950730455114</v>
       </c>
       <c r="K13">
-        <v>0.999985189284066</v>
+        <v>0.9999950730455114</v>
       </c>
       <c r="L13">
-        <v>0.999985189284066</v>
+        <v>0.9999950730455114</v>
       </c>
       <c r="M13">
-        <v>1.000022217545453</v>
+        <v>1.000007385271779</v>
       </c>
       <c r="N13">
-        <v>1.000022217545453</v>
+        <v>1.000007385271779</v>
       </c>
       <c r="O13">
-        <v>1.000025672994123</v>
+        <v>1.000008536535055</v>
       </c>
       <c r="P13">
-        <v>1.000009874791657</v>
+        <v>1.000003281196357</v>
       </c>
       <c r="Q13">
-        <v>1.000009874791657</v>
+        <v>1.000003281196357</v>
       </c>
       <c r="R13">
-        <v>1.000003703414759</v>
+        <v>1.000001229158645</v>
       </c>
       <c r="S13">
-        <v>1.000003703414759</v>
+        <v>1.000001229158645</v>
       </c>
       <c r="T13">
-        <v>1.000001317208676</v>
+        <v>1.000000436552387</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.99965257687344</v>
+        <v>0.9999611585626805</v>
       </c>
       <c r="D14">
-        <v>1.001389717296725</v>
+        <v>1.000155384154465</v>
       </c>
       <c r="E14">
-        <v>0.99965257687344</v>
+        <v>0.9999611585626805</v>
       </c>
       <c r="F14">
-        <v>1.001389717296725</v>
+        <v>1.000155384154465</v>
       </c>
       <c r="G14">
-        <v>0.99965257687344</v>
+        <v>0.9999611585626805</v>
       </c>
       <c r="H14">
-        <v>0.9990735286551363</v>
+        <v>0.9998964104816832</v>
       </c>
       <c r="I14">
-        <v>1.000764333309126</v>
+        <v>1.000085461795551</v>
       </c>
       <c r="J14">
-        <v>0.99965257687344</v>
+        <v>0.9999611585626805</v>
       </c>
       <c r="K14">
-        <v>0.99965257687344</v>
+        <v>0.9999611585626805</v>
       </c>
       <c r="L14">
-        <v>0.99965257687344</v>
+        <v>0.9999611585626805</v>
       </c>
       <c r="M14">
-        <v>1.000521147085082</v>
+        <v>1.000058271358573</v>
       </c>
       <c r="N14">
-        <v>1.000521147085082</v>
+        <v>1.000058271358573</v>
       </c>
       <c r="O14">
-        <v>1.000602209159763</v>
+        <v>1.000067334837565</v>
       </c>
       <c r="P14">
-        <v>1.000231623681201</v>
+        <v>1.000025900426609</v>
       </c>
       <c r="Q14">
-        <v>1.000231623681201</v>
+        <v>1.000025900426609</v>
       </c>
       <c r="R14">
-        <v>1.000086861979261</v>
+        <v>1.000009714960627</v>
       </c>
       <c r="S14">
-        <v>1.000086861979261</v>
+        <v>1.000009714960627</v>
       </c>
       <c r="T14">
-        <v>1.000030884980218</v>
+        <v>1.00000345535329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999048832169725</v>
+        <v>0.9999859574520517</v>
       </c>
       <c r="D15">
-        <v>1.000380462842394</v>
+        <v>1.000056170018698</v>
       </c>
       <c r="E15">
-        <v>0.9999048832169725</v>
+        <v>0.9999859574520517</v>
       </c>
       <c r="F15">
-        <v>1.000380462842394</v>
+        <v>1.000056170018698</v>
       </c>
       <c r="G15">
-        <v>0.9999048832169725</v>
+        <v>0.9999859574520517</v>
       </c>
       <c r="H15">
-        <v>0.9997463593638564</v>
+        <v>0.9999625541002868</v>
       </c>
       <c r="I15">
-        <v>1.000209256283895</v>
+        <v>1.000030893185215</v>
       </c>
       <c r="J15">
-        <v>0.9999048832169725</v>
+        <v>0.9999859574520517</v>
       </c>
       <c r="K15">
-        <v>0.9999048832169725</v>
+        <v>0.9999859574520517</v>
       </c>
       <c r="L15">
-        <v>0.9999048832169725</v>
+        <v>0.9999859574520517</v>
       </c>
       <c r="M15">
-        <v>1.000142673029683</v>
+        <v>1.000021063735375</v>
       </c>
       <c r="N15">
-        <v>1.000142673029683</v>
+        <v>1.000021063735375</v>
       </c>
       <c r="O15">
-        <v>1.000164867447754</v>
+        <v>1.000024340218655</v>
       </c>
       <c r="P15">
-        <v>1.000063409758779</v>
+        <v>1.000009361640934</v>
       </c>
       <c r="Q15">
-        <v>1.000063409758779</v>
+        <v>1.000009361640934</v>
       </c>
       <c r="R15">
-        <v>1.000023778123328</v>
+        <v>1.000003510593713</v>
       </c>
       <c r="S15">
-        <v>1.000023778123328</v>
+        <v>1.000003510593713</v>
       </c>
       <c r="T15">
-        <v>1.000008454690177</v>
+        <v>1.000001248276726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997262275348012</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="D16">
-        <v>1.001095085486933</v>
+        <v>1.000108435056343</v>
       </c>
       <c r="E16">
-        <v>0.9997262275348012</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="F16">
-        <v>1.001095085486933</v>
+        <v>1.000108435056343</v>
       </c>
       <c r="G16">
-        <v>0.9997262275348012</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="H16">
-        <v>0.9992699437974106</v>
+        <v>0.9999277104995293</v>
       </c>
       <c r="I16">
-        <v>1.000602299212972</v>
+        <v>1.000059639467257</v>
       </c>
       <c r="J16">
-        <v>0.9997262275348012</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="K16">
-        <v>0.9997262275348012</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="L16">
-        <v>0.9997262275348012</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="M16">
-        <v>1.000410656510867</v>
+        <v>1.000040663673651</v>
       </c>
       <c r="N16">
-        <v>1.000410656510867</v>
+        <v>1.000040663673651</v>
       </c>
       <c r="O16">
-        <v>1.000474537411569</v>
+        <v>1.000046988938186</v>
       </c>
       <c r="P16">
-        <v>1.000182513518845</v>
+        <v>1.000018073212754</v>
       </c>
       <c r="Q16">
-        <v>1.000182513518845</v>
+        <v>1.000018073212754</v>
       </c>
       <c r="R16">
-        <v>1.000068442022834</v>
+        <v>1.000006777982305</v>
       </c>
       <c r="S16">
-        <v>1.000068442022834</v>
+        <v>1.000006777982305</v>
       </c>
       <c r="T16">
-        <v>1.00002433518362</v>
+        <v>1.000002410316001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9997763786839177</v>
+        <v>0.9999480458420169</v>
       </c>
       <c r="D17">
-        <v>1.000894481776995</v>
+        <v>1.000207804953348</v>
       </c>
       <c r="E17">
-        <v>0.9997763786839177</v>
+        <v>0.9999480458420169</v>
       </c>
       <c r="F17">
-        <v>1.000894481776995</v>
+        <v>1.000207804953348</v>
       </c>
       <c r="G17">
-        <v>0.9997763786839177</v>
+        <v>0.9999480458420169</v>
       </c>
       <c r="H17">
-        <v>0.9994036792797661</v>
+        <v>0.9998614634814975</v>
       </c>
       <c r="I17">
-        <v>1.000491966826921</v>
+        <v>1.000114293337652</v>
       </c>
       <c r="J17">
-        <v>0.9997763786839177</v>
+        <v>0.9999480458420169</v>
       </c>
       <c r="K17">
-        <v>0.9997763786839177</v>
+        <v>0.9999480458420169</v>
       </c>
       <c r="L17">
-        <v>0.9997763786839177</v>
+        <v>0.9999480458420169</v>
       </c>
       <c r="M17">
-        <v>1.000335430230456</v>
+        <v>1.000077925397683</v>
       </c>
       <c r="N17">
-        <v>1.000335430230456</v>
+        <v>1.000077925397683</v>
       </c>
       <c r="O17">
-        <v>1.000387609095944</v>
+        <v>1.000090048044339</v>
       </c>
       <c r="P17">
-        <v>1.000149079714943</v>
+        <v>1.000034632212461</v>
       </c>
       <c r="Q17">
-        <v>1.000149079714943</v>
+        <v>1.000034632212461</v>
       </c>
       <c r="R17">
-        <v>1.000055904457187</v>
+        <v>1.00001298561985</v>
       </c>
       <c r="S17">
-        <v>1.000055904457187</v>
+        <v>1.00001298561985</v>
       </c>
       <c r="T17">
-        <v>1.000019877322573</v>
+        <v>1.000004616549758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9998779851946219</v>
+        <v>0.9999238050059523</v>
       </c>
       <c r="D18">
-        <v>1.000488060632227</v>
+        <v>1.000304784350101</v>
       </c>
       <c r="E18">
-        <v>0.9998779851946219</v>
+        <v>0.9999238050059523</v>
       </c>
       <c r="F18">
-        <v>1.000488060632227</v>
+        <v>1.000304784350101</v>
       </c>
       <c r="G18">
-        <v>0.9998779851946219</v>
+        <v>0.9999238050059523</v>
       </c>
       <c r="H18">
-        <v>0.9996746264332838</v>
+        <v>0.9997968156606689</v>
       </c>
       <c r="I18">
-        <v>1.000268433617571</v>
+        <v>1.000167627399943</v>
       </c>
       <c r="J18">
-        <v>0.9998779851946219</v>
+        <v>0.9999238050059523</v>
       </c>
       <c r="K18">
-        <v>0.9998779851946219</v>
+        <v>0.9999238050059523</v>
       </c>
       <c r="L18">
-        <v>0.9998779851946219</v>
+        <v>0.9999238050059523</v>
       </c>
       <c r="M18">
-        <v>1.000183022913424</v>
+        <v>1.000114294678027</v>
       </c>
       <c r="N18">
-        <v>1.000183022913424</v>
+        <v>1.000114294678027</v>
       </c>
       <c r="O18">
-        <v>1.00021149314814</v>
+        <v>1.000132072251999</v>
       </c>
       <c r="P18">
-        <v>1.000081343673824</v>
+        <v>1.000050798120669</v>
       </c>
       <c r="Q18">
-        <v>1.000081343673824</v>
+        <v>1.000050798120669</v>
       </c>
       <c r="R18">
-        <v>1.000030504054023</v>
+        <v>1.000019049841989</v>
       </c>
       <c r="S18">
-        <v>1.000030504054023</v>
+        <v>1.000019049841989</v>
       </c>
       <c r="T18">
-        <v>1.000010846044491</v>
+        <v>1.000006773738095</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9998697032548881</v>
+        <v>0.9999991920296541</v>
       </c>
       <c r="D19">
-        <v>1.000521180582279</v>
+        <v>1.000003231501903</v>
       </c>
       <c r="E19">
-        <v>0.9998697032548881</v>
+        <v>0.9999991920296541</v>
       </c>
       <c r="F19">
-        <v>1.000521180582279</v>
+        <v>1.000003231501903</v>
       </c>
       <c r="G19">
-        <v>0.9998697032548881</v>
+        <v>0.9999991920296541</v>
       </c>
       <c r="H19">
-        <v>0.9996525459808102</v>
+        <v>0.9999978462512874</v>
       </c>
       <c r="I19">
-        <v>1.000286653508274</v>
+        <v>1.00000177705273</v>
       </c>
       <c r="J19">
-        <v>0.9998697032548881</v>
+        <v>0.9999991920296541</v>
       </c>
       <c r="K19">
-        <v>0.9998697032548881</v>
+        <v>0.9999991920296541</v>
       </c>
       <c r="L19">
-        <v>0.9998697032548881</v>
+        <v>0.9999991920296541</v>
       </c>
       <c r="M19">
-        <v>1.000195441918584</v>
+        <v>1.000001211765778</v>
       </c>
       <c r="N19">
-        <v>1.000195441918584</v>
+        <v>1.000001211765778</v>
       </c>
       <c r="O19">
-        <v>1.000225845781814</v>
+        <v>1.000001400194762</v>
       </c>
       <c r="P19">
-        <v>1.000086862364018</v>
+        <v>1.000000538520404</v>
       </c>
       <c r="Q19">
-        <v>1.000086862364018</v>
+        <v>1.000000538520404</v>
       </c>
       <c r="R19">
-        <v>1.000032572586736</v>
+        <v>1.000000201897716</v>
       </c>
       <c r="S19">
-        <v>1.000032572586736</v>
+        <v>1.000000201897716</v>
       </c>
       <c r="T19">
-        <v>1.000011581639338</v>
+        <v>1.000000071815814</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999999419747201</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="D20">
-        <v>1.000000231887966</v>
+        <v>1.000005599438328</v>
       </c>
       <c r="E20">
-        <v>0.9999999419747201</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="F20">
-        <v>1.000000231887966</v>
+        <v>1.000005599438328</v>
       </c>
       <c r="G20">
-        <v>0.9999999419747201</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="H20">
-        <v>0.9999998460186614</v>
+        <v>0.9999962675920931</v>
       </c>
       <c r="I20">
-        <v>1.000000127231889</v>
+        <v>1.000003079251923</v>
       </c>
       <c r="J20">
-        <v>0.9999999419747201</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="K20">
-        <v>0.9999999419747201</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="L20">
-        <v>0.9999999419747201</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="M20">
-        <v>1.000000086931343</v>
+        <v>1.000002099824281</v>
       </c>
       <c r="N20">
-        <v>1.000000086931343</v>
+        <v>1.000002099824281</v>
       </c>
       <c r="O20">
-        <v>1.000000100364858</v>
+        <v>1.000002426300162</v>
       </c>
       <c r="P20">
-        <v>1.000000038612469</v>
+        <v>1.000000933286266</v>
       </c>
       <c r="Q20">
-        <v>1.000000038612469</v>
+        <v>1.000000933286266</v>
       </c>
       <c r="R20">
-        <v>1.000000014453032</v>
+        <v>1.000000350017258</v>
       </c>
       <c r="S20">
-        <v>1.000000014453032</v>
+        <v>1.000000350017258</v>
       </c>
       <c r="T20">
-        <v>1.000000005177113</v>
+        <v>1.000000124485508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999987715042993</v>
+        <v>0.999998205951915</v>
       </c>
       <c r="D21">
-        <v>1.000004911836918</v>
+        <v>1.000007174403128</v>
       </c>
       <c r="E21">
-        <v>0.9999987715042993</v>
+        <v>0.999998205951915</v>
       </c>
       <c r="F21">
-        <v>1.000004911836918</v>
+        <v>1.000007174403128</v>
       </c>
       <c r="G21">
-        <v>0.9999987715042993</v>
+        <v>0.999998205951915</v>
       </c>
       <c r="H21">
-        <v>0.9999967257365153</v>
+        <v>0.999995217945342</v>
       </c>
       <c r="I21">
-        <v>1.000002701304022</v>
+        <v>1.000003946397218</v>
       </c>
       <c r="J21">
-        <v>0.9999987715042993</v>
+        <v>0.999998205951915</v>
       </c>
       <c r="K21">
-        <v>0.9999987715042993</v>
+        <v>0.999998205951915</v>
       </c>
       <c r="L21">
-        <v>0.9999987715042993</v>
+        <v>0.999998205951915</v>
       </c>
       <c r="M21">
-        <v>1.000001841670609</v>
+        <v>1.000002690177522</v>
       </c>
       <c r="N21">
-        <v>1.000001841670609</v>
+        <v>1.000002690177522</v>
       </c>
       <c r="O21">
-        <v>1.00000212821508</v>
+        <v>1.00000310891742</v>
       </c>
       <c r="P21">
-        <v>1.000000818281839</v>
+        <v>1.000001195435653</v>
       </c>
       <c r="Q21">
-        <v>1.000000818281839</v>
+        <v>1.000001195435653</v>
       </c>
       <c r="R21">
-        <v>1.000000306587454</v>
+        <v>1.000000448064718</v>
       </c>
       <c r="S21">
-        <v>1.000000306587454</v>
+        <v>1.000000448064718</v>
       </c>
       <c r="T21">
-        <v>1.000000108898392</v>
+        <v>1.000000159433572</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999956766453189</v>
+        <v>0.9999959322956574</v>
       </c>
       <c r="D22">
-        <v>1.000017293542942</v>
+        <v>1.00001626848884</v>
       </c>
       <c r="E22">
-        <v>0.9999956766453189</v>
+        <v>0.9999959322956574</v>
       </c>
       <c r="F22">
-        <v>1.000017293542942</v>
+        <v>1.00001626848884</v>
       </c>
       <c r="G22">
-        <v>0.9999956766453189</v>
+        <v>0.9999959322956574</v>
       </c>
       <c r="H22">
-        <v>0.9999884713419886</v>
+        <v>0.9999891538815278</v>
       </c>
       <c r="I22">
-        <v>1.000009510580651</v>
+        <v>1.000008947696338</v>
       </c>
       <c r="J22">
-        <v>0.9999956766453189</v>
+        <v>0.9999959322956574</v>
       </c>
       <c r="K22">
-        <v>0.9999956766453189</v>
+        <v>0.9999959322956574</v>
       </c>
       <c r="L22">
-        <v>0.9999956766453189</v>
+        <v>0.9999959322956574</v>
       </c>
       <c r="M22">
-        <v>1.000006485094131</v>
+        <v>1.000006100392249</v>
       </c>
       <c r="N22">
-        <v>1.000006485094131</v>
+        <v>1.000006100392249</v>
       </c>
       <c r="O22">
-        <v>1.000007493589637</v>
+        <v>1.000007049493612</v>
       </c>
       <c r="P22">
-        <v>1.00000288227786</v>
+        <v>1.000002711026718</v>
       </c>
       <c r="Q22">
-        <v>1.00000288227786</v>
+        <v>1.000002711026718</v>
       </c>
       <c r="R22">
-        <v>1.000001080869725</v>
+        <v>1.000001016343953</v>
       </c>
       <c r="S22">
-        <v>1.000001080869725</v>
+        <v>1.000001016343953</v>
       </c>
       <c r="T22">
-        <v>1.00000038423359</v>
+        <v>1.000000361158946</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999940353188503</v>
+      </c>
+      <c r="D23">
+        <v>1.000023854654492</v>
+      </c>
+      <c r="E23">
+        <v>0.9999940353188503</v>
+      </c>
+      <c r="F23">
+        <v>1.000023854654492</v>
+      </c>
+      <c r="G23">
+        <v>0.9999940353188503</v>
+      </c>
+      <c r="H23">
+        <v>0.9999840959989149</v>
+      </c>
+      <c r="I23">
+        <v>1.000013119193242</v>
+      </c>
+      <c r="J23">
+        <v>0.9999940353188503</v>
+      </c>
+      <c r="K23">
+        <v>0.9999940353188503</v>
+      </c>
+      <c r="L23">
+        <v>0.9999940353188503</v>
+      </c>
+      <c r="M23">
+        <v>1.000008944986671</v>
+      </c>
+      <c r="N23">
+        <v>1.000008944986671</v>
+      </c>
+      <c r="O23">
+        <v>1.000010336388861</v>
+      </c>
+      <c r="P23">
+        <v>1.000003975097398</v>
+      </c>
+      <c r="Q23">
+        <v>1.000003975097398</v>
+      </c>
+      <c r="R23">
+        <v>1.000001490152761</v>
+      </c>
+      <c r="S23">
+        <v>1.000001490152761</v>
+      </c>
+      <c r="T23">
+        <v>1.000000529300533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="D24">
+        <v>1.000223439760814</v>
+      </c>
+      <c r="E24">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="F24">
+        <v>1.000223439760814</v>
+      </c>
+      <c r="G24">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="H24">
+        <v>0.9998510489799155</v>
+      </c>
+      <c r="I24">
+        <v>1.000122889135115</v>
+      </c>
+      <c r="J24">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="K24">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="L24">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="M24">
+        <v>1.00008379048253</v>
+      </c>
+      <c r="N24">
+        <v>1.00008379048253</v>
+      </c>
+      <c r="O24">
+        <v>1.000096823366725</v>
+      </c>
+      <c r="P24">
+        <v>1.000037240723102</v>
+      </c>
+      <c r="Q24">
+        <v>1.000037240723102</v>
+      </c>
+      <c r="R24">
+        <v>1.000013965843387</v>
+      </c>
+      <c r="S24">
+        <v>1.000013965843387</v>
+      </c>
+      <c r="T24">
+        <v>1.000004966914763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="D25">
+        <v>1.000059245806839</v>
+      </c>
+      <c r="E25">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="F25">
+        <v>1.000059245806839</v>
+      </c>
+      <c r="G25">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="H25">
+        <v>0.9999605057015554</v>
+      </c>
+      <c r="I25">
+        <v>1.000032583891463</v>
+      </c>
+      <c r="J25">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="K25">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="L25">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="M25">
+        <v>1.000022217545453</v>
+      </c>
+      <c r="N25">
+        <v>1.000022217545453</v>
+      </c>
+      <c r="O25">
+        <v>1.000025672994123</v>
+      </c>
+      <c r="P25">
+        <v>1.000009874791657</v>
+      </c>
+      <c r="Q25">
+        <v>1.000009874791657</v>
+      </c>
+      <c r="R25">
+        <v>1.000003703414759</v>
+      </c>
+      <c r="S25">
+        <v>1.000003703414759</v>
+      </c>
+      <c r="T25">
+        <v>1.000001317208676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="D26">
+        <v>1.001389717296725</v>
+      </c>
+      <c r="E26">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="F26">
+        <v>1.001389717296725</v>
+      </c>
+      <c r="G26">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="H26">
+        <v>0.9990735286551363</v>
+      </c>
+      <c r="I26">
+        <v>1.000764333309126</v>
+      </c>
+      <c r="J26">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="K26">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="L26">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="M26">
+        <v>1.000521147085082</v>
+      </c>
+      <c r="N26">
+        <v>1.000521147085082</v>
+      </c>
+      <c r="O26">
+        <v>1.000602209159763</v>
+      </c>
+      <c r="P26">
+        <v>1.000231623681201</v>
+      </c>
+      <c r="Q26">
+        <v>1.000231623681201</v>
+      </c>
+      <c r="R26">
+        <v>1.000086861979261</v>
+      </c>
+      <c r="S26">
+        <v>1.000086861979261</v>
+      </c>
+      <c r="T26">
+        <v>1.000030884980218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="D27">
+        <v>1.000380462842394</v>
+      </c>
+      <c r="E27">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="F27">
+        <v>1.000380462842394</v>
+      </c>
+      <c r="G27">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="H27">
+        <v>0.9997463593638564</v>
+      </c>
+      <c r="I27">
+        <v>1.000209256283895</v>
+      </c>
+      <c r="J27">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="K27">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="L27">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="M27">
+        <v>1.000142673029683</v>
+      </c>
+      <c r="N27">
+        <v>1.000142673029683</v>
+      </c>
+      <c r="O27">
+        <v>1.000164867447754</v>
+      </c>
+      <c r="P27">
+        <v>1.000063409758779</v>
+      </c>
+      <c r="Q27">
+        <v>1.000063409758779</v>
+      </c>
+      <c r="R27">
+        <v>1.000023778123328</v>
+      </c>
+      <c r="S27">
+        <v>1.000023778123328</v>
+      </c>
+      <c r="T27">
+        <v>1.000008454690177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9997262275348012</v>
+      </c>
+      <c r="D28">
+        <v>1.001095085486933</v>
+      </c>
+      <c r="E28">
+        <v>0.9997262275348012</v>
+      </c>
+      <c r="F28">
+        <v>1.001095085486933</v>
+      </c>
+      <c r="G28">
+        <v>0.9997262275348012</v>
+      </c>
+      <c r="H28">
+        <v>0.9992699437974106</v>
+      </c>
+      <c r="I28">
+        <v>1.000602299212972</v>
+      </c>
+      <c r="J28">
+        <v>0.9997262275348012</v>
+      </c>
+      <c r="K28">
+        <v>0.9997262275348012</v>
+      </c>
+      <c r="L28">
+        <v>0.9997262275348012</v>
+      </c>
+      <c r="M28">
+        <v>1.000410656510867</v>
+      </c>
+      <c r="N28">
+        <v>1.000410656510867</v>
+      </c>
+      <c r="O28">
+        <v>1.000474537411569</v>
+      </c>
+      <c r="P28">
+        <v>1.000182513518845</v>
+      </c>
+      <c r="Q28">
+        <v>1.000182513518845</v>
+      </c>
+      <c r="R28">
+        <v>1.000068442022834</v>
+      </c>
+      <c r="S28">
+        <v>1.000068442022834</v>
+      </c>
+      <c r="T28">
+        <v>1.00002433518362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9997763786839177</v>
+      </c>
+      <c r="D29">
+        <v>1.000894481776995</v>
+      </c>
+      <c r="E29">
+        <v>0.9997763786839177</v>
+      </c>
+      <c r="F29">
+        <v>1.000894481776995</v>
+      </c>
+      <c r="G29">
+        <v>0.9997763786839177</v>
+      </c>
+      <c r="H29">
+        <v>0.9994036792797661</v>
+      </c>
+      <c r="I29">
+        <v>1.000491966826921</v>
+      </c>
+      <c r="J29">
+        <v>0.9997763786839177</v>
+      </c>
+      <c r="K29">
+        <v>0.9997763786839177</v>
+      </c>
+      <c r="L29">
+        <v>0.9997763786839177</v>
+      </c>
+      <c r="M29">
+        <v>1.000335430230456</v>
+      </c>
+      <c r="N29">
+        <v>1.000335430230456</v>
+      </c>
+      <c r="O29">
+        <v>1.000387609095944</v>
+      </c>
+      <c r="P29">
+        <v>1.000149079714943</v>
+      </c>
+      <c r="Q29">
+        <v>1.000149079714943</v>
+      </c>
+      <c r="R29">
+        <v>1.000055904457187</v>
+      </c>
+      <c r="S29">
+        <v>1.000055904457187</v>
+      </c>
+      <c r="T29">
+        <v>1.000019877322573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9998779851946219</v>
+      </c>
+      <c r="D30">
+        <v>1.000488060632227</v>
+      </c>
+      <c r="E30">
+        <v>0.9998779851946219</v>
+      </c>
+      <c r="F30">
+        <v>1.000488060632227</v>
+      </c>
+      <c r="G30">
+        <v>0.9998779851946219</v>
+      </c>
+      <c r="H30">
+        <v>0.9996746264332838</v>
+      </c>
+      <c r="I30">
+        <v>1.000268433617571</v>
+      </c>
+      <c r="J30">
+        <v>0.9998779851946219</v>
+      </c>
+      <c r="K30">
+        <v>0.9998779851946219</v>
+      </c>
+      <c r="L30">
+        <v>0.9998779851946219</v>
+      </c>
+      <c r="M30">
+        <v>1.000183022913424</v>
+      </c>
+      <c r="N30">
+        <v>1.000183022913424</v>
+      </c>
+      <c r="O30">
+        <v>1.00021149314814</v>
+      </c>
+      <c r="P30">
+        <v>1.000081343673824</v>
+      </c>
+      <c r="Q30">
+        <v>1.000081343673824</v>
+      </c>
+      <c r="R30">
+        <v>1.000030504054023</v>
+      </c>
+      <c r="S30">
+        <v>1.000030504054023</v>
+      </c>
+      <c r="T30">
+        <v>1.000010846044491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="D31">
+        <v>1.000521180582279</v>
+      </c>
+      <c r="E31">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="F31">
+        <v>1.000521180582279</v>
+      </c>
+      <c r="G31">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="H31">
+        <v>0.9996525459808102</v>
+      </c>
+      <c r="I31">
+        <v>1.000286653508274</v>
+      </c>
+      <c r="J31">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="K31">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="L31">
+        <v>0.9998697032548881</v>
+      </c>
+      <c r="M31">
+        <v>1.000195441918584</v>
+      </c>
+      <c r="N31">
+        <v>1.000195441918584</v>
+      </c>
+      <c r="O31">
+        <v>1.000225845781814</v>
+      </c>
+      <c r="P31">
+        <v>1.000086862364018</v>
+      </c>
+      <c r="Q31">
+        <v>1.000086862364018</v>
+      </c>
+      <c r="R31">
+        <v>1.000032572586736</v>
+      </c>
+      <c r="S31">
+        <v>1.000032572586736</v>
+      </c>
+      <c r="T31">
+        <v>1.000011581639338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9996941175342466</v>
+      </c>
+      <c r="D32">
+        <v>1.001223523287672</v>
+      </c>
+      <c r="E32">
+        <v>0.9996941175342466</v>
+      </c>
+      <c r="F32">
+        <v>1.001223523287672</v>
+      </c>
+      <c r="G32">
+        <v>0.9996941175342466</v>
+      </c>
+      <c r="H32">
+        <v>0.9991843189041093</v>
+      </c>
+      <c r="I32">
+        <v>1.000672940410959</v>
+      </c>
+      <c r="J32">
+        <v>0.9996941175342466</v>
+      </c>
+      <c r="K32">
+        <v>0.9996941175342466</v>
+      </c>
+      <c r="L32">
+        <v>0.9996941175342466</v>
+      </c>
+      <c r="M32">
+        <v>1.000458820410959</v>
+      </c>
+      <c r="N32">
+        <v>1.000458820410959</v>
+      </c>
+      <c r="O32">
+        <v>1.000530193744292</v>
+      </c>
+      <c r="P32">
+        <v>1.000203919452055</v>
+      </c>
+      <c r="Q32">
+        <v>1.000203919452055</v>
+      </c>
+      <c r="R32">
+        <v>1.000076468972603</v>
+      </c>
+      <c r="S32">
+        <v>1.000076468972603</v>
+      </c>
+      <c r="T32">
+        <v>1.000027189200913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000395924210526</v>
+      </c>
+      <c r="D33">
+        <v>0.9984162626315788</v>
+      </c>
+      <c r="E33">
+        <v>1.000395924210526</v>
+      </c>
+      <c r="F33">
+        <v>0.9984162626315788</v>
+      </c>
+      <c r="G33">
+        <v>1.000395924210526</v>
+      </c>
+      <c r="H33">
+        <v>1.001055823157895</v>
+      </c>
+      <c r="I33">
+        <v>0.9991289463157894</v>
+      </c>
+      <c r="J33">
+        <v>1.000395924210526</v>
+      </c>
+      <c r="K33">
+        <v>1.000395924210526</v>
+      </c>
+      <c r="L33">
+        <v>1.000395924210526</v>
+      </c>
+      <c r="M33">
+        <v>0.9994060934210525</v>
+      </c>
+      <c r="N33">
+        <v>0.9994060934210525</v>
+      </c>
+      <c r="O33">
+        <v>0.9993137110526314</v>
+      </c>
+      <c r="P33">
+        <v>0.9997360370175438</v>
+      </c>
+      <c r="Q33">
+        <v>0.9997360370175438</v>
+      </c>
+      <c r="R33">
+        <v>0.9999010088157894</v>
+      </c>
+      <c r="S33">
+        <v>0.9999010088157894</v>
+      </c>
+      <c r="T33">
+        <v>0.9999648007894736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="D34">
+        <v>0.9966667668421052</v>
+      </c>
+      <c r="E34">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="F34">
+        <v>0.9966667668421052</v>
+      </c>
+      <c r="G34">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="H34">
+        <v>1.00222215</v>
+      </c>
+      <c r="I34">
+        <v>0.9981667294736842</v>
+      </c>
+      <c r="J34">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="K34">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="L34">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="M34">
+        <v>0.9987500344736842</v>
+      </c>
+      <c r="N34">
+        <v>0.9987500344736842</v>
+      </c>
+      <c r="O34">
+        <v>0.9985555994736842</v>
+      </c>
+      <c r="P34">
+        <v>0.9994444570175438</v>
+      </c>
+      <c r="Q34">
+        <v>0.9994444570175438</v>
+      </c>
+      <c r="R34">
+        <v>0.9997916682894736</v>
+      </c>
+      <c r="S34">
+        <v>0.9997916682894736</v>
+      </c>
+      <c r="T34">
+        <v>0.9999259254385965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9995071309776453</v>
+      </c>
+      <c r="D35">
+        <v>1.001971475032492</v>
+      </c>
+      <c r="E35">
+        <v>0.9995071309776453</v>
+      </c>
+      <c r="F35">
+        <v>1.001971475032492</v>
+      </c>
+      <c r="G35">
+        <v>0.9995071309776453</v>
+      </c>
+      <c r="H35">
+        <v>0.9986856817025656</v>
+      </c>
+      <c r="I35">
+        <v>1.001084336715906</v>
+      </c>
+      <c r="J35">
+        <v>0.9995071309776453</v>
+      </c>
+      <c r="K35">
+        <v>0.9995071309776453</v>
+      </c>
+      <c r="L35">
+        <v>0.9995071309776453</v>
+      </c>
+      <c r="M35">
+        <v>1.000739303005069</v>
+      </c>
+      <c r="N35">
+        <v>1.000739303005069</v>
+      </c>
+      <c r="O35">
+        <v>1.000854314242014</v>
+      </c>
+      <c r="P35">
+        <v>1.000328578995928</v>
+      </c>
+      <c r="Q35">
+        <v>1.000328578995928</v>
+      </c>
+      <c r="R35">
+        <v>1.000123216991357</v>
+      </c>
+      <c r="S35">
+        <v>1.000123216991357</v>
+      </c>
+      <c r="T35">
+        <v>1.000043814397316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="D36">
+        <v>1.000000231887966</v>
+      </c>
+      <c r="E36">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="F36">
+        <v>1.000000231887966</v>
+      </c>
+      <c r="G36">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="H36">
+        <v>0.9999998460186614</v>
+      </c>
+      <c r="I36">
+        <v>1.000000127231889</v>
+      </c>
+      <c r="J36">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="K36">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="L36">
+        <v>0.9999999419747201</v>
+      </c>
+      <c r="M36">
+        <v>1.000000086931343</v>
+      </c>
+      <c r="N36">
+        <v>1.000000086931343</v>
+      </c>
+      <c r="O36">
+        <v>1.000000100364858</v>
+      </c>
+      <c r="P36">
+        <v>1.000000038612469</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000038612469</v>
+      </c>
+      <c r="R36">
+        <v>1.000000014453032</v>
+      </c>
+      <c r="S36">
+        <v>1.000000014453032</v>
+      </c>
+      <c r="T36">
+        <v>1.000000005177113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="D37">
+        <v>1.000004911836918</v>
+      </c>
+      <c r="E37">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="F37">
+        <v>1.000004911836918</v>
+      </c>
+      <c r="G37">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="H37">
+        <v>0.9999967257365153</v>
+      </c>
+      <c r="I37">
+        <v>1.000002701304022</v>
+      </c>
+      <c r="J37">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="K37">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="L37">
+        <v>0.9999987715042993</v>
+      </c>
+      <c r="M37">
+        <v>1.000001841670609</v>
+      </c>
+      <c r="N37">
+        <v>1.000001841670609</v>
+      </c>
+      <c r="O37">
+        <v>1.00000212821508</v>
+      </c>
+      <c r="P37">
+        <v>1.000000818281839</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000818281839</v>
+      </c>
+      <c r="R37">
+        <v>1.000000306587454</v>
+      </c>
+      <c r="S37">
+        <v>1.000000306587454</v>
+      </c>
+      <c r="T37">
+        <v>1.000000108898392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="D38">
+        <v>1.000017293542942</v>
+      </c>
+      <c r="E38">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="F38">
+        <v>1.000017293542942</v>
+      </c>
+      <c r="G38">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="H38">
+        <v>0.9999884713419886</v>
+      </c>
+      <c r="I38">
+        <v>1.000009510580651</v>
+      </c>
+      <c r="J38">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="K38">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="L38">
+        <v>0.9999956766453189</v>
+      </c>
+      <c r="M38">
+        <v>1.000006485094131</v>
+      </c>
+      <c r="N38">
+        <v>1.000006485094131</v>
+      </c>
+      <c r="O38">
+        <v>1.000007493589637</v>
+      </c>
+      <c r="P38">
+        <v>1.00000288227786</v>
+      </c>
+      <c r="Q38">
+        <v>1.00000288227786</v>
+      </c>
+      <c r="R38">
+        <v>1.000001080869725</v>
+      </c>
+      <c r="S38">
+        <v>1.000001080869725</v>
+      </c>
+      <c r="T38">
+        <v>1.00000038423359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999898716112084</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000040512299778</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9999898716112084</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000040512299778</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9999898716112084</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999729917980168</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000022282101361</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9999898716112084</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999898716112084</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999898716112084</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000015191955493</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000015191955493</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000017555337449</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000006751840732</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000006751840732</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000002531783351</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000002531783351</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.00000090017213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000317549159956</v>
+      </c>
+      <c r="D40">
+        <v>0.9987298001990252</v>
+      </c>
+      <c r="E40">
+        <v>1.000317549159956</v>
+      </c>
+      <c r="F40">
+        <v>0.9987298001990252</v>
+      </c>
+      <c r="G40">
+        <v>1.000317549159956</v>
+      </c>
+      <c r="H40">
+        <v>1.000846799433039</v>
+      </c>
+      <c r="I40">
+        <v>0.9993013902998826</v>
+      </c>
+      <c r="J40">
+        <v>1.000317549159956</v>
+      </c>
+      <c r="K40">
+        <v>1.000317549159956</v>
+      </c>
+      <c r="L40">
+        <v>1.000317549159956</v>
+      </c>
+      <c r="M40">
+        <v>0.9995236746794908</v>
+      </c>
+      <c r="N40">
+        <v>0.9995236746794908</v>
+      </c>
+      <c r="O40">
+        <v>0.999449579886288</v>
+      </c>
+      <c r="P40">
+        <v>0.9997882995063126</v>
+      </c>
+      <c r="Q40">
+        <v>0.9997882995063126</v>
+      </c>
+      <c r="R40">
+        <v>0.9999206119197235</v>
+      </c>
+      <c r="S40">
+        <v>0.9999206119197235</v>
+      </c>
+      <c r="T40">
+        <v>0.9999717729019694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.999996406850496</v>
+      </c>
+      <c r="D41">
+        <v>1.000014378548753</v>
+      </c>
+      <c r="E41">
+        <v>0.999996406850496</v>
+      </c>
+      <c r="F41">
+        <v>1.000014378548753</v>
+      </c>
+      <c r="G41">
+        <v>0.999996406850496</v>
+      </c>
+      <c r="H41">
+        <v>0.9999904138419961</v>
+      </c>
+      <c r="I41">
+        <v>1.000007908704277</v>
+      </c>
+      <c r="J41">
+        <v>0.999996406850496</v>
+      </c>
+      <c r="K41">
+        <v>0.999996406850496</v>
+      </c>
+      <c r="L41">
+        <v>0.999996406850496</v>
+      </c>
+      <c r="M41">
+        <v>1.000005392699625</v>
+      </c>
+      <c r="N41">
+        <v>1.000005392699625</v>
+      </c>
+      <c r="O41">
+        <v>1.000006231367842</v>
+      </c>
+      <c r="P41">
+        <v>1.000002397416582</v>
+      </c>
+      <c r="Q41">
+        <v>1.000002397416582</v>
+      </c>
+      <c r="R41">
+        <v>1.00000089977506</v>
+      </c>
+      <c r="S41">
+        <v>1.00000089977506</v>
+      </c>
+      <c r="T41">
+        <v>1.000000320274419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9999490314742131</v>
+      </c>
+      <c r="D42">
+        <v>1.000203874447404</v>
+      </c>
+      <c r="E42">
+        <v>0.9999490314742131</v>
+      </c>
+      <c r="F42">
+        <v>1.000203874447404</v>
+      </c>
+      <c r="G42">
+        <v>0.9999490314742131</v>
+      </c>
+      <c r="H42">
+        <v>0.999864081060343</v>
+      </c>
+      <c r="I42">
+        <v>1.000112131322643</v>
+      </c>
+      <c r="J42">
+        <v>0.9999490314742131</v>
+      </c>
+      <c r="K42">
+        <v>0.9999490314742131</v>
+      </c>
+      <c r="L42">
+        <v>0.9999490314742131</v>
+      </c>
+      <c r="M42">
+        <v>1.000076452960809</v>
+      </c>
+      <c r="N42">
+        <v>1.000076452960809</v>
+      </c>
+      <c r="O42">
+        <v>1.000088345748087</v>
+      </c>
+      <c r="P42">
+        <v>1.000033979131943</v>
+      </c>
+      <c r="Q42">
+        <v>1.000033979131943</v>
+      </c>
+      <c r="R42">
+        <v>1.000012742217511</v>
+      </c>
+      <c r="S42">
+        <v>1.000012742217511</v>
+      </c>
+      <c r="T42">
+        <v>1.000004530208839</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999859574520517</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="D3">
-        <v>1.000056170018698</v>
+        <v>1.000005599438328</v>
       </c>
       <c r="E3">
-        <v>0.9999859574520517</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="F3">
-        <v>0.9999859574520517</v>
+        <v>1.000005599438328</v>
       </c>
       <c r="G3">
-        <v>0.9999625541002868</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="H3">
-        <v>1.000030893185215</v>
+        <v>0.9999962675920931</v>
       </c>
       <c r="I3">
-        <v>0.9999859574520517</v>
+        <v>1.000003079251923</v>
       </c>
       <c r="J3">
-        <v>1.000056170018698</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="K3">
-        <v>0.9999859574520517</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="L3">
-        <v>0.9999859574520517</v>
+        <v>0.999998600210235</v>
       </c>
       <c r="M3">
-        <v>1.000021063735375</v>
+        <v>1.000002099824281</v>
       </c>
       <c r="N3">
-        <v>1.000021063735375</v>
+        <v>1.000002099824281</v>
       </c>
       <c r="O3">
-        <v>1.000024340218655</v>
+        <v>1.000002426300162</v>
       </c>
       <c r="P3">
-        <v>1.000009361640934</v>
+        <v>1.000000933286266</v>
       </c>
       <c r="Q3">
-        <v>1.000009361640934</v>
+        <v>1.000000933286266</v>
       </c>
       <c r="R3">
-        <v>1.000003510593713</v>
+        <v>1.000000350017258</v>
       </c>
       <c r="S3">
-        <v>1.000003510593713</v>
+        <v>1.000000350017258</v>
       </c>
       <c r="T3">
-        <v>1.000001248276726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000000124485508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999728922909594</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="D4">
-        <v>1.000108435056343</v>
+        <v>0.9987298001990252</v>
       </c>
       <c r="E4">
-        <v>0.9999728922909594</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="F4">
-        <v>0.9999728922909594</v>
+        <v>0.9987298001990252</v>
       </c>
       <c r="G4">
-        <v>0.9999277104995293</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="H4">
-        <v>1.000059639467257</v>
+        <v>1.000846799433039</v>
       </c>
       <c r="I4">
-        <v>0.9999728922909594</v>
+        <v>0.9993013902998826</v>
       </c>
       <c r="J4">
-        <v>1.000108435056343</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="K4">
-        <v>0.9999728922909594</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="L4">
-        <v>0.9999728922909594</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="M4">
-        <v>1.000040663673651</v>
+        <v>0.9995236746794908</v>
       </c>
       <c r="N4">
-        <v>1.000040663673651</v>
+        <v>0.9995236746794908</v>
       </c>
       <c r="O4">
-        <v>1.000046988938186</v>
+        <v>0.999449579886288</v>
       </c>
       <c r="P4">
-        <v>1.000018073212754</v>
+        <v>0.9997882995063126</v>
       </c>
       <c r="Q4">
-        <v>1.000018073212754</v>
+        <v>0.9997882995063126</v>
       </c>
       <c r="R4">
-        <v>1.000006777982305</v>
+        <v>0.9999206119197235</v>
       </c>
       <c r="S4">
-        <v>1.000006777982305</v>
+        <v>0.9999206119197235</v>
       </c>
       <c r="T4">
-        <v>1.000002410316001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999717729019694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9999480458420169</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="D5">
-        <v>1.000207804953348</v>
+        <v>1.000534067154176</v>
       </c>
       <c r="E5">
-        <v>0.9999480458420169</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="F5">
-        <v>0.9999480458420169</v>
+        <v>1.000534067154176</v>
       </c>
       <c r="G5">
-        <v>0.9998614634814975</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="H5">
-        <v>1.000114293337652</v>
+        <v>0.9996439549279525</v>
       </c>
       <c r="I5">
-        <v>0.9999480458420169</v>
+        <v>1.000293739380404</v>
       </c>
       <c r="J5">
-        <v>1.000207804953348</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="K5">
-        <v>0.9999480458420169</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="L5">
-        <v>0.9999480458420169</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="M5">
-        <v>1.000077925397683</v>
+        <v>1.000200274935158</v>
       </c>
       <c r="N5">
-        <v>1.000077925397683</v>
+        <v>1.000200274935158</v>
       </c>
       <c r="O5">
-        <v>1.000090048044339</v>
+        <v>1.00023142975024</v>
       </c>
       <c r="P5">
-        <v>1.000034632212461</v>
+        <v>1.000089010862152</v>
       </c>
       <c r="Q5">
-        <v>1.000034632212461</v>
+        <v>1.000089010862152</v>
       </c>
       <c r="R5">
-        <v>1.00001298561985</v>
+        <v>1.000033378825649</v>
       </c>
       <c r="S5">
-        <v>1.00001298561985</v>
+        <v>1.000033378825649</v>
       </c>
       <c r="T5">
-        <v>1.000004616549758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000011868268492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9999238050059523</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="D6">
-        <v>1.000304784350101</v>
+        <v>1.001971475032492</v>
       </c>
       <c r="E6">
-        <v>0.9999238050059523</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="F6">
-        <v>0.9999238050059523</v>
+        <v>1.001971475032492</v>
       </c>
       <c r="G6">
-        <v>0.9997968156606689</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="H6">
-        <v>1.000167627399943</v>
+        <v>0.9986856817025656</v>
       </c>
       <c r="I6">
-        <v>0.9999238050059523</v>
+        <v>1.001084336715906</v>
       </c>
       <c r="J6">
-        <v>1.000304784350101</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="K6">
-        <v>0.9999238050059523</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="L6">
-        <v>0.9999238050059523</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="M6">
-        <v>1.000114294678027</v>
+        <v>1.000739303005069</v>
       </c>
       <c r="N6">
-        <v>1.000114294678027</v>
+        <v>1.000739303005069</v>
       </c>
       <c r="O6">
-        <v>1.000132072251999</v>
+        <v>1.000854314242014</v>
       </c>
       <c r="P6">
-        <v>1.000050798120669</v>
+        <v>1.000328578995928</v>
       </c>
       <c r="Q6">
-        <v>1.000050798120669</v>
+        <v>1.000328578995928</v>
       </c>
       <c r="R6">
-        <v>1.000019049841989</v>
+        <v>1.000123216991357</v>
       </c>
       <c r="S6">
-        <v>1.000019049841989</v>
+        <v>1.000123216991357</v>
       </c>
       <c r="T6">
-        <v>1.000006773738095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000043814397316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999991920296541</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="D7">
-        <v>1.000003231501903</v>
+        <v>1.000044849772309</v>
       </c>
       <c r="E7">
-        <v>0.9999991920296541</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="F7">
-        <v>0.9999991920296541</v>
+        <v>1.000044849772309</v>
       </c>
       <c r="G7">
-        <v>0.9999978462512874</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="H7">
-        <v>1.00000177705273</v>
+        <v>0.9999701003848918</v>
       </c>
       <c r="I7">
-        <v>0.9999991920296541</v>
+        <v>1.000024667336788</v>
       </c>
       <c r="J7">
-        <v>1.000003231501903</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="K7">
-        <v>0.9999991920296541</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="L7">
-        <v>0.9999991920296541</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="M7">
-        <v>1.000001211765778</v>
+        <v>1.000016818770493</v>
       </c>
       <c r="N7">
-        <v>1.000001211765778</v>
+        <v>1.000016818770493</v>
       </c>
       <c r="O7">
-        <v>1.000001400194762</v>
+        <v>1.000019434959258</v>
       </c>
       <c r="P7">
-        <v>1.000000538520404</v>
+        <v>1.00000747510322</v>
       </c>
       <c r="Q7">
-        <v>1.000000538520404</v>
+        <v>1.00000747510322</v>
       </c>
       <c r="R7">
-        <v>1.000000201897716</v>
+        <v>1.000002803269584</v>
       </c>
       <c r="S7">
-        <v>1.000000201897716</v>
+        <v>1.000002803269584</v>
       </c>
       <c r="T7">
-        <v>1.000000071815814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000000996800003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999998600210235</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="D8">
-        <v>1.000005599438328</v>
+        <v>1.000004911836918</v>
       </c>
       <c r="E8">
-        <v>0.999998600210235</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="F8">
-        <v>0.999998600210235</v>
+        <v>1.000004911836918</v>
       </c>
       <c r="G8">
-        <v>0.9999962675920931</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="H8">
-        <v>1.000003079251923</v>
+        <v>0.9999967257365153</v>
       </c>
       <c r="I8">
-        <v>0.999998600210235</v>
+        <v>1.000002701304022</v>
       </c>
       <c r="J8">
-        <v>1.000005599438328</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="K8">
-        <v>0.999998600210235</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="L8">
-        <v>0.999998600210235</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="M8">
-        <v>1.000002099824281</v>
+        <v>1.000001841670609</v>
       </c>
       <c r="N8">
-        <v>1.000002099824281</v>
+        <v>1.000001841670609</v>
       </c>
       <c r="O8">
-        <v>1.000002426300162</v>
+        <v>1.00000212821508</v>
       </c>
       <c r="P8">
-        <v>1.000000933286266</v>
+        <v>1.000000818281839</v>
       </c>
       <c r="Q8">
-        <v>1.000000933286266</v>
+        <v>1.000000818281839</v>
       </c>
       <c r="R8">
-        <v>1.000000350017258</v>
+        <v>1.000000306587454</v>
       </c>
       <c r="S8">
-        <v>1.000000350017258</v>
+        <v>1.000000306587454</v>
       </c>
       <c r="T8">
-        <v>1.000000124485508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000000108898392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999998205951915</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="D9">
-        <v>1.000007174403128</v>
+        <v>1.000108435056343</v>
       </c>
       <c r="E9">
-        <v>0.999998205951915</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="F9">
-        <v>0.999998205951915</v>
+        <v>1.000108435056343</v>
       </c>
       <c r="G9">
-        <v>0.999995217945342</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="H9">
-        <v>1.000003946397218</v>
+        <v>0.9999277104995293</v>
       </c>
       <c r="I9">
-        <v>0.999998205951915</v>
+        <v>1.000059639467257</v>
       </c>
       <c r="J9">
-        <v>1.000007174403128</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="K9">
-        <v>0.999998205951915</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="L9">
-        <v>0.999998205951915</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="M9">
-        <v>1.000002690177522</v>
+        <v>1.000040663673651</v>
       </c>
       <c r="N9">
-        <v>1.000002690177522</v>
+        <v>1.000040663673651</v>
       </c>
       <c r="O9">
-        <v>1.00000310891742</v>
+        <v>1.000046988938186</v>
       </c>
       <c r="P9">
-        <v>1.000001195435653</v>
+        <v>1.000018073212754</v>
       </c>
       <c r="Q9">
-        <v>1.000001195435653</v>
+        <v>1.000018073212754</v>
       </c>
       <c r="R9">
-        <v>1.000000448064718</v>
+        <v>1.000006777982305</v>
       </c>
       <c r="S9">
-        <v>1.000000448064718</v>
+        <v>1.000006777982305</v>
       </c>
       <c r="T9">
-        <v>1.000000159433572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000002410316001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999959322956574</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="D10">
-        <v>1.00001626848884</v>
+        <v>1.002000916390823</v>
       </c>
       <c r="E10">
-        <v>0.9999959322956574</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="F10">
-        <v>0.9999959322956574</v>
+        <v>1.002000916390823</v>
       </c>
       <c r="G10">
-        <v>0.9999891538815278</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="H10">
-        <v>1.000008947696338</v>
+        <v>0.9986660544911239</v>
       </c>
       <c r="I10">
-        <v>0.9999959322956574</v>
+        <v>1.001100529313744</v>
       </c>
       <c r="J10">
-        <v>1.00001626848884</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="K10">
-        <v>0.9999959322956574</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="L10">
-        <v>0.9999959322956574</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="M10">
-        <v>1.000006100392249</v>
+        <v>1.000750343556812</v>
       </c>
       <c r="N10">
-        <v>1.000006100392249</v>
+        <v>1.000750343556812</v>
       </c>
       <c r="O10">
-        <v>1.000007049493612</v>
+        <v>1.000867072142456</v>
       </c>
       <c r="P10">
-        <v>1.000002711026718</v>
+        <v>1.000333485945475</v>
       </c>
       <c r="Q10">
-        <v>1.000002711026718</v>
+        <v>1.000333485945475</v>
       </c>
       <c r="R10">
-        <v>1.000001016343953</v>
+        <v>1.000125057139806</v>
       </c>
       <c r="S10">
-        <v>1.000001016343953</v>
+        <v>1.000125057139806</v>
       </c>
       <c r="T10">
-        <v>1.000000361158946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.000044468727349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999940353188503</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="D11">
-        <v>1.000023854654492</v>
+        <v>0.9989878745751268</v>
       </c>
       <c r="E11">
-        <v>0.9999940353188503</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="F11">
-        <v>0.9999940353188503</v>
+        <v>0.9989878745751268</v>
       </c>
       <c r="G11">
-        <v>0.9999840959989149</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="H11">
-        <v>1.000013119193242</v>
+        <v>1.000674749198686</v>
       </c>
       <c r="I11">
-        <v>0.9999940353188503</v>
+        <v>0.9994433311801609</v>
       </c>
       <c r="J11">
-        <v>1.000023854654492</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="K11">
-        <v>0.9999940353188503</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="L11">
-        <v>0.9999940353188503</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="M11">
-        <v>1.000008944986671</v>
+        <v>0.9996204534823377</v>
       </c>
       <c r="N11">
-        <v>1.000008944986671</v>
+        <v>0.9996204534823377</v>
       </c>
       <c r="O11">
-        <v>1.000010336388861</v>
+        <v>0.9995614127149454</v>
       </c>
       <c r="P11">
-        <v>1.000003975097398</v>
+        <v>0.9998313131180746</v>
       </c>
       <c r="Q11">
-        <v>1.000003975097398</v>
+        <v>0.9998313131180746</v>
       </c>
       <c r="R11">
-        <v>1.000001490152761</v>
+        <v>0.9999367429359431</v>
       </c>
       <c r="S11">
-        <v>1.000001490152761</v>
+        <v>0.9999367429359431</v>
       </c>
       <c r="T11">
-        <v>1.000000529300533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999775086871033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9999441412042449</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="D12">
-        <v>1.000223439760814</v>
+        <v>1.000557331210524</v>
       </c>
       <c r="E12">
-        <v>0.9999441412042449</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="F12">
-        <v>0.9999441412042449</v>
+        <v>1.000557331210524</v>
       </c>
       <c r="G12">
-        <v>0.9998510489799155</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="H12">
-        <v>1.000122889135115</v>
+        <v>0.999628446484211</v>
       </c>
       <c r="I12">
-        <v>0.9999441412042449</v>
+        <v>1.000306535221053</v>
       </c>
       <c r="J12">
-        <v>1.000223439760814</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="K12">
-        <v>0.9999441412042449</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="L12">
-        <v>0.9999441412042449</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="M12">
-        <v>1.00008379048253</v>
+        <v>1.000208998957894</v>
       </c>
       <c r="N12">
-        <v>1.00008379048253</v>
+        <v>1.000208998957894</v>
       </c>
       <c r="O12">
-        <v>1.000096823366725</v>
+        <v>1.000241511045614</v>
       </c>
       <c r="P12">
-        <v>1.000037240723102</v>
+        <v>1.000092888207017</v>
       </c>
       <c r="Q12">
-        <v>1.000037240723102</v>
+        <v>1.000092888207017</v>
       </c>
       <c r="R12">
-        <v>1.000013965843387</v>
+        <v>1.000034832831578</v>
       </c>
       <c r="S12">
-        <v>1.000013965843387</v>
+        <v>1.000034832831578</v>
       </c>
       <c r="T12">
-        <v>1.000004966914763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000012385505263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999851892840661</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="D13">
-        <v>1.000059245806839</v>
+        <v>0.9996064713472725</v>
       </c>
       <c r="E13">
-        <v>0.9999851892840661</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="F13">
-        <v>0.9999851892840661</v>
+        <v>0.9996064713472725</v>
       </c>
       <c r="G13">
-        <v>0.9999605057015554</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="H13">
-        <v>1.000032583891463</v>
+        <v>1.000262355195357</v>
       </c>
       <c r="I13">
-        <v>0.9999851892840661</v>
+        <v>0.9997835580746239</v>
       </c>
       <c r="J13">
-        <v>1.000059245806839</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="K13">
-        <v>0.9999851892840661</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="L13">
-        <v>0.9999851892840661</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="M13">
-        <v>1.000022217545453</v>
+        <v>0.9998524266934118</v>
       </c>
       <c r="N13">
-        <v>1.000022217545453</v>
+        <v>0.9998524266934118</v>
       </c>
       <c r="O13">
-        <v>1.000025672994123</v>
+        <v>0.9998294704871492</v>
       </c>
       <c r="P13">
-        <v>1.000009874791657</v>
+        <v>0.9999344118087915</v>
       </c>
       <c r="Q13">
-        <v>1.000009874791657</v>
+        <v>0.9999344118087915</v>
       </c>
       <c r="R13">
-        <v>1.000003703414759</v>
+        <v>0.9999754043664814</v>
       </c>
       <c r="S13">
-        <v>1.000003703414759</v>
+        <v>0.9999754043664814</v>
       </c>
       <c r="T13">
-        <v>1.000001317208676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.999991255122651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.99965257687344</v>
+        <v>0.99913575</v>
       </c>
       <c r="D14">
-        <v>1.001389717296724</v>
+        <v>1.003456999999999</v>
       </c>
       <c r="E14">
-        <v>0.99965257687344</v>
+        <v>0.99913575</v>
       </c>
       <c r="F14">
-        <v>0.99965257687344</v>
+        <v>1.003456999999999</v>
       </c>
       <c r="G14">
-        <v>0.9990735286551363</v>
+        <v>0.99913575</v>
       </c>
       <c r="H14">
-        <v>1.000764333309126</v>
+        <v>0.9976953299999994</v>
       </c>
       <c r="I14">
-        <v>0.99965257687344</v>
+        <v>1.0019014</v>
       </c>
       <c r="J14">
-        <v>1.001389717296724</v>
+        <v>0.99913575</v>
       </c>
       <c r="K14">
-        <v>0.99965257687344</v>
+        <v>0.99913575</v>
       </c>
       <c r="L14">
-        <v>0.99965257687344</v>
+        <v>0.99913575</v>
       </c>
       <c r="M14">
-        <v>1.000521147085082</v>
+        <v>1.001296374999999</v>
       </c>
       <c r="N14">
-        <v>1.000521147085082</v>
+        <v>1.001296374999999</v>
       </c>
       <c r="O14">
-        <v>1.000602209159763</v>
+        <v>1.00149805</v>
       </c>
       <c r="P14">
-        <v>1.000231623681201</v>
+        <v>1.000576166666666</v>
       </c>
       <c r="Q14">
-        <v>1.000231623681201</v>
+        <v>1.000576166666666</v>
       </c>
       <c r="R14">
-        <v>1.000086861979261</v>
+        <v>1.0002160625</v>
       </c>
       <c r="S14">
-        <v>1.000086861979261</v>
+        <v>1.0002160625</v>
       </c>
       <c r="T14">
-        <v>1.000030884980218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.00007683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999048832169725</v>
+        <v>1.0010055</v>
       </c>
       <c r="D15">
-        <v>1.000380462842394</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E15">
-        <v>0.9999048832169725</v>
+        <v>1.0010055</v>
       </c>
       <c r="F15">
-        <v>0.9999048832169725</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G15">
-        <v>0.9997463593638564</v>
+        <v>1.0010055</v>
       </c>
       <c r="H15">
-        <v>1.000209256283895</v>
+        <v>1.0026814</v>
       </c>
       <c r="I15">
-        <v>0.9999048832169725</v>
+        <v>0.99778785</v>
       </c>
       <c r="J15">
-        <v>1.000380462842394</v>
+        <v>1.0010055</v>
       </c>
       <c r="K15">
-        <v>0.9999048832169725</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>0.9999048832169725</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>1.000142673029683</v>
+        <v>0.9984917</v>
       </c>
       <c r="N15">
-        <v>1.000142673029683</v>
+        <v>0.9984917</v>
       </c>
       <c r="O15">
-        <v>1.000164867447754</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P15">
-        <v>1.000063409758779</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q15">
-        <v>1.000063409758779</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R15">
-        <v>1.000023778123328</v>
+        <v>0.9997486</v>
       </c>
       <c r="S15">
-        <v>1.000023778123328</v>
+        <v>0.9997486</v>
       </c>
       <c r="T15">
-        <v>1.000008454690177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.99999994197472</v>
+        <v>1.0023351</v>
       </c>
       <c r="D16">
-        <v>1.000000231887966</v>
+        <v>0.99065943</v>
       </c>
       <c r="E16">
-        <v>0.99999994197472</v>
+        <v>1.0023351</v>
       </c>
       <c r="F16">
-        <v>0.99999994197472</v>
+        <v>0.99065943</v>
       </c>
       <c r="G16">
-        <v>0.9999998460186614</v>
+        <v>1.0023351</v>
       </c>
       <c r="H16">
-        <v>1.000000127231889</v>
+        <v>1.006227</v>
       </c>
       <c r="I16">
-        <v>0.99999994197472</v>
+        <v>0.99486269</v>
       </c>
       <c r="J16">
-        <v>1.000000231887966</v>
+        <v>1.0023351</v>
       </c>
       <c r="K16">
-        <v>0.99999994197472</v>
+        <v>1.0023351</v>
       </c>
       <c r="L16">
-        <v>0.99999994197472</v>
+        <v>1.0023351</v>
       </c>
       <c r="M16">
-        <v>1.000000086931343</v>
+        <v>0.996497265</v>
       </c>
       <c r="N16">
-        <v>1.000000086931343</v>
+        <v>0.996497265</v>
       </c>
       <c r="O16">
-        <v>1.000000100364858</v>
+        <v>0.9959524066666666</v>
       </c>
       <c r="P16">
-        <v>1.000000038612469</v>
+        <v>0.99844321</v>
       </c>
       <c r="Q16">
-        <v>1.000000038612469</v>
+        <v>0.99844321</v>
       </c>
       <c r="R16">
-        <v>1.000000014453031</v>
+        <v>0.9994161825000001</v>
       </c>
       <c r="S16">
-        <v>1.000000014453031</v>
+        <v>0.9994161825000001</v>
       </c>
       <c r="T16">
-        <v>1.000000005177113</v>
+        <v>0.9997924033333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999987715042993</v>
+        <v>1.0009977</v>
       </c>
       <c r="D17">
-        <v>1.000004911836918</v>
+        <v>0.9960090700000001</v>
       </c>
       <c r="E17">
-        <v>0.9999987715042993</v>
+        <v>1.0009977</v>
       </c>
       <c r="F17">
-        <v>0.9999987715042993</v>
+        <v>0.9960090700000001</v>
       </c>
       <c r="G17">
-        <v>0.9999967257365153</v>
+        <v>1.0009977</v>
       </c>
       <c r="H17">
-        <v>1.000002701304022</v>
+        <v>1.0026606</v>
       </c>
       <c r="I17">
-        <v>0.9999987715042993</v>
+        <v>0.9978049900000001</v>
       </c>
       <c r="J17">
-        <v>1.000004911836918</v>
+        <v>1.0009977</v>
       </c>
       <c r="K17">
-        <v>0.9999987715042993</v>
+        <v>1.0009977</v>
       </c>
       <c r="L17">
-        <v>0.9999987715042993</v>
+        <v>1.0009977</v>
       </c>
       <c r="M17">
-        <v>1.000001841670609</v>
+        <v>0.998503385</v>
       </c>
       <c r="N17">
-        <v>1.000001841670609</v>
+        <v>0.998503385</v>
       </c>
       <c r="O17">
-        <v>1.00000212821508</v>
+        <v>0.9982705866666667</v>
       </c>
       <c r="P17">
-        <v>1.000000818281839</v>
+        <v>0.9993348233333333</v>
       </c>
       <c r="Q17">
-        <v>1.000000818281839</v>
+        <v>0.9993348233333333</v>
       </c>
       <c r="R17">
-        <v>1.000000306587454</v>
+        <v>0.9997505425000001</v>
       </c>
       <c r="S17">
-        <v>1.000000306587454</v>
+        <v>0.9997505425000001</v>
       </c>
       <c r="T17">
-        <v>1.000000108898392</v>
+        <v>0.9999112933333335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999956766453189</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="D18">
-        <v>1.000017293542942</v>
+        <v>1.001223523287672</v>
       </c>
       <c r="E18">
-        <v>0.9999956766453189</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="F18">
-        <v>0.9999956766453189</v>
+        <v>1.001223523287672</v>
       </c>
       <c r="G18">
-        <v>0.9999884713419886</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="H18">
-        <v>1.000009510580651</v>
+        <v>0.9991843189041093</v>
       </c>
       <c r="I18">
-        <v>0.9999956766453189</v>
+        <v>1.000672940410959</v>
       </c>
       <c r="J18">
-        <v>1.000017293542942</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="K18">
-        <v>0.9999956766453189</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="L18">
-        <v>0.9999956766453189</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="M18">
-        <v>1.000006485094131</v>
+        <v>1.000458820410959</v>
       </c>
       <c r="N18">
-        <v>1.000006485094131</v>
+        <v>1.000458820410959</v>
       </c>
       <c r="O18">
-        <v>1.000007493589637</v>
+        <v>1.000530193744292</v>
       </c>
       <c r="P18">
-        <v>1.00000288227786</v>
+        <v>1.000203919452055</v>
       </c>
       <c r="Q18">
-        <v>1.00000288227786</v>
+        <v>1.000203919452055</v>
       </c>
       <c r="R18">
-        <v>1.000001080869725</v>
+        <v>1.000076468972603</v>
       </c>
       <c r="S18">
-        <v>1.000001080869725</v>
+        <v>1.000076468972603</v>
       </c>
       <c r="T18">
-        <v>1.00000038423359</v>
+        <v>1.000027189200913</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9999898716112084</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="D19">
-        <v>1.000040512299778</v>
+        <v>0.9984162626315788</v>
       </c>
       <c r="E19">
-        <v>0.9999898716112084</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="F19">
-        <v>0.9999898716112084</v>
+        <v>0.9984162626315788</v>
       </c>
       <c r="G19">
-        <v>0.9999729917980168</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="H19">
-        <v>1.000022282101361</v>
+        <v>1.001055823157895</v>
       </c>
       <c r="I19">
-        <v>0.9999898716112084</v>
+        <v>0.9991289463157894</v>
       </c>
       <c r="J19">
-        <v>1.000040512299778</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="K19">
-        <v>0.9999898716112084</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="L19">
-        <v>0.9999898716112084</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="M19">
-        <v>1.000015191955493</v>
+        <v>0.9994060934210525</v>
       </c>
       <c r="N19">
-        <v>1.000015191955493</v>
+        <v>0.9994060934210525</v>
       </c>
       <c r="O19">
-        <v>1.000017555337449</v>
+        <v>0.9993137110526314</v>
       </c>
       <c r="P19">
-        <v>1.000006751840732</v>
+        <v>0.9997360370175438</v>
       </c>
       <c r="Q19">
-        <v>1.000006751840732</v>
+        <v>0.9997360370175438</v>
       </c>
       <c r="R19">
-        <v>1.000002531783351</v>
+        <v>0.9999010088157894</v>
       </c>
       <c r="S19">
-        <v>1.000002531783351</v>
+        <v>0.9999010088157894</v>
       </c>
       <c r="T19">
-        <v>1.00000090017213</v>
+        <v>0.9999648007894736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="D20">
+        <v>0.9966667668421052</v>
+      </c>
+      <c r="E20">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="F20">
+        <v>0.9966667668421052</v>
+      </c>
+      <c r="G20">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="H20">
+        <v>1.00222215</v>
+      </c>
+      <c r="I20">
+        <v>0.9981667294736842</v>
+      </c>
+      <c r="J20">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="K20">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="L20">
+        <v>1.000833302105263</v>
+      </c>
+      <c r="M20">
+        <v>0.9987500344736842</v>
+      </c>
+      <c r="N20">
+        <v>0.9987500344736842</v>
+      </c>
+      <c r="O20">
+        <v>0.9985555994736842</v>
+      </c>
+      <c r="P20">
+        <v>0.9994444570175438</v>
+      </c>
+      <c r="Q20">
+        <v>0.9994444570175438</v>
+      </c>
+      <c r="R20">
+        <v>0.9997916682894736</v>
+      </c>
+      <c r="S20">
+        <v>0.9997916682894736</v>
+      </c>
+      <c r="T20">
+        <v>0.9999259254385965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="D21">
+        <v>1.001389717296725</v>
+      </c>
+      <c r="E21">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="F21">
+        <v>1.001389717296725</v>
+      </c>
+      <c r="G21">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="H21">
+        <v>0.9990735286551363</v>
+      </c>
+      <c r="I21">
+        <v>1.000764333309126</v>
+      </c>
+      <c r="J21">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="K21">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="L21">
+        <v>0.99965257687344</v>
+      </c>
+      <c r="M21">
+        <v>1.000521147085082</v>
+      </c>
+      <c r="N21">
+        <v>1.000521147085082</v>
+      </c>
+      <c r="O21">
+        <v>1.000602209159763</v>
+      </c>
+      <c r="P21">
+        <v>1.000231623681201</v>
+      </c>
+      <c r="Q21">
+        <v>1.000231623681201</v>
+      </c>
+      <c r="R21">
+        <v>1.000086861979261</v>
+      </c>
+      <c r="S21">
+        <v>1.000086861979261</v>
+      </c>
+      <c r="T21">
+        <v>1.000030884980218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="D22">
+        <v>1.000380462842394</v>
+      </c>
+      <c r="E22">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="F22">
+        <v>1.000380462842394</v>
+      </c>
+      <c r="G22">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="H22">
+        <v>0.9997463593638564</v>
+      </c>
+      <c r="I22">
+        <v>1.000209256283895</v>
+      </c>
+      <c r="J22">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="K22">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="L22">
+        <v>0.9999048832169725</v>
+      </c>
+      <c r="M22">
+        <v>1.000142673029683</v>
+      </c>
+      <c r="N22">
+        <v>1.000142673029683</v>
+      </c>
+      <c r="O22">
+        <v>1.000164867447754</v>
+      </c>
+      <c r="P22">
+        <v>1.000063409758779</v>
+      </c>
+      <c r="Q22">
+        <v>1.000063409758779</v>
+      </c>
+      <c r="R22">
+        <v>1.000023778123328</v>
+      </c>
+      <c r="S22">
+        <v>1.000023778123328</v>
+      </c>
+      <c r="T22">
+        <v>1.000008454690177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="D23">
+        <v>1.000223439760814</v>
+      </c>
+      <c r="E23">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="F23">
+        <v>1.000223439760814</v>
+      </c>
+      <c r="G23">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="H23">
+        <v>0.9998510489799155</v>
+      </c>
+      <c r="I23">
+        <v>1.000122889135115</v>
+      </c>
+      <c r="J23">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="K23">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="L23">
+        <v>0.9999441412042449</v>
+      </c>
+      <c r="M23">
+        <v>1.00008379048253</v>
+      </c>
+      <c r="N23">
+        <v>1.00008379048253</v>
+      </c>
+      <c r="O23">
+        <v>1.000096823366725</v>
+      </c>
+      <c r="P23">
+        <v>1.000037240723102</v>
+      </c>
+      <c r="Q23">
+        <v>1.000037240723102</v>
+      </c>
+      <c r="R23">
+        <v>1.000013965843387</v>
+      </c>
+      <c r="S23">
+        <v>1.000013965843387</v>
+      </c>
+      <c r="T23">
+        <v>1.000004966914763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="D24">
+        <v>1.000059245806839</v>
+      </c>
+      <c r="E24">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="F24">
+        <v>1.000059245806839</v>
+      </c>
+      <c r="G24">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="H24">
+        <v>0.9999605057015554</v>
+      </c>
+      <c r="I24">
+        <v>1.000032583891463</v>
+      </c>
+      <c r="J24">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="K24">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="L24">
+        <v>0.999985189284066</v>
+      </c>
+      <c r="M24">
+        <v>1.000022217545453</v>
+      </c>
+      <c r="N24">
+        <v>1.000022217545453</v>
+      </c>
+      <c r="O24">
+        <v>1.000025672994123</v>
+      </c>
+      <c r="P24">
+        <v>1.000009874791657</v>
+      </c>
+      <c r="Q24">
+        <v>1.000009874791657</v>
+      </c>
+      <c r="R24">
+        <v>1.000003703414759</v>
+      </c>
+      <c r="S24">
+        <v>1.000003703414759</v>
+      </c>
+      <c r="T24">
+        <v>1.000001317208676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000912182632532</v>
+      </c>
+      <c r="D25">
+        <v>0.9963512984660673</v>
+      </c>
+      <c r="E25">
+        <v>1.000912182632532</v>
+      </c>
+      <c r="F25">
+        <v>0.9963512984660673</v>
+      </c>
+      <c r="G25">
+        <v>1.000912182632532</v>
+      </c>
+      <c r="H25">
+        <v>1.002432459854972</v>
+      </c>
+      <c r="I25">
+        <v>0.9979932134917705</v>
+      </c>
+      <c r="J25">
+        <v>1.000912182632532</v>
+      </c>
+      <c r="K25">
+        <v>1.000912182632532</v>
+      </c>
+      <c r="L25">
+        <v>1.000912182632532</v>
+      </c>
+      <c r="M25">
+        <v>0.9986317405492997</v>
+      </c>
+      <c r="N25">
+        <v>0.9986317405492997</v>
+      </c>
+      <c r="O25">
+        <v>0.99841889819679</v>
+      </c>
+      <c r="P25">
+        <v>0.9993918879103773</v>
+      </c>
+      <c r="Q25">
+        <v>0.9993918879103773</v>
+      </c>
+      <c r="R25">
+        <v>0.999771961590916</v>
+      </c>
+      <c r="S25">
+        <v>0.999771961590916</v>
+      </c>
+      <c r="T25">
+        <v>0.9999189199517344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000241709078032</v>
+      </c>
+      <c r="D26">
+        <v>0.9990331698797065</v>
+      </c>
+      <c r="E26">
+        <v>1.000241709078032</v>
+      </c>
+      <c r="F26">
+        <v>0.9990331698797065</v>
+      </c>
+      <c r="G26">
+        <v>1.000241709078032</v>
+      </c>
+      <c r="H26">
+        <v>1.000644558073614</v>
+      </c>
+      <c r="I26">
+        <v>0.9994682457416542</v>
+      </c>
+      <c r="J26">
+        <v>1.000241709078032</v>
+      </c>
+      <c r="K26">
+        <v>1.000241709078032</v>
+      </c>
+      <c r="L26">
+        <v>1.000241709078032</v>
+      </c>
+      <c r="M26">
+        <v>0.9996374394788694</v>
+      </c>
+      <c r="N26">
+        <v>0.9996374394788694</v>
+      </c>
+      <c r="O26">
+        <v>0.9995810415664644</v>
+      </c>
+      <c r="P26">
+        <v>0.9998388626785903</v>
+      </c>
+      <c r="Q26">
+        <v>0.9998388626785903</v>
+      </c>
+      <c r="R26">
+        <v>0.9999395742784508</v>
+      </c>
+      <c r="S26">
+        <v>0.9999395742784508</v>
+      </c>
+      <c r="T26">
+        <v>0.999978516821512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="D27">
+        <v>1.000206031305166</v>
+      </c>
+      <c r="E27">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="F27">
+        <v>1.000206031305166</v>
+      </c>
+      <c r="G27">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="H27">
+        <v>0.9998626335217454</v>
+      </c>
+      <c r="I27">
+        <v>1.000113318883869</v>
+      </c>
+      <c r="J27">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="K27">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="L27">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="M27">
+        <v>1.000077263216903</v>
+      </c>
+      <c r="N27">
+        <v>1.000077263216903</v>
+      </c>
+      <c r="O27">
+        <v>1.000089281772558</v>
+      </c>
+      <c r="P27">
+        <v>1.000034340520815</v>
+      </c>
+      <c r="Q27">
+        <v>1.000034340520815</v>
+      </c>
+      <c r="R27">
+        <v>1.000012879172771</v>
+      </c>
+      <c r="S27">
+        <v>1.000012879172771</v>
+      </c>
+      <c r="T27">
+        <v>1.000004578182783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="D28">
+        <v>0.9993931489191334</v>
+      </c>
+      <c r="E28">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="F28">
+        <v>0.9993931489191334</v>
+      </c>
+      <c r="G28">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="H28">
+        <v>1.000404573748486</v>
+      </c>
+      <c r="I28">
+        <v>0.9996662362099407</v>
+      </c>
+      <c r="J28">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="K28">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="L28">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="M28">
+        <v>0.9997724315761719</v>
+      </c>
+      <c r="N28">
+        <v>0.9997724315761719</v>
+      </c>
+      <c r="O28">
+        <v>0.9997370331207615</v>
+      </c>
+      <c r="P28">
+        <v>0.9998988591285181</v>
+      </c>
+      <c r="Q28">
+        <v>0.9998988591285181</v>
+      </c>
+      <c r="R28">
+        <v>0.9999620729046912</v>
+      </c>
+      <c r="S28">
+        <v>0.9999620729046912</v>
+      </c>
+      <c r="T28">
+        <v>0.9999865169295319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000301545948111</v>
+      </c>
+      <c r="D29">
+        <v>0.9987938612585774</v>
+      </c>
+      <c r="E29">
+        <v>1.000301545948111</v>
+      </c>
+      <c r="F29">
+        <v>0.9987938612585774</v>
+      </c>
+      <c r="G29">
+        <v>1.000301545948111</v>
+      </c>
+      <c r="H29">
+        <v>1.00080410189676</v>
+      </c>
+      <c r="I29">
+        <v>0.999336636409397</v>
+      </c>
+      <c r="J29">
+        <v>1.000301545948111</v>
+      </c>
+      <c r="K29">
+        <v>1.000301545948111</v>
+      </c>
+      <c r="L29">
+        <v>1.000301545948111</v>
+      </c>
+      <c r="M29">
+        <v>0.999547703603344</v>
+      </c>
+      <c r="N29">
+        <v>0.999547703603344</v>
+      </c>
+      <c r="O29">
+        <v>0.9994773478720284</v>
+      </c>
+      <c r="P29">
+        <v>0.9997989843849329</v>
+      </c>
+      <c r="Q29">
+        <v>0.9997989843849329</v>
+      </c>
+      <c r="R29">
+        <v>0.9999246247757273</v>
+      </c>
+      <c r="S29">
+        <v>0.9999246247757273</v>
+      </c>
+      <c r="T29">
+        <v>0.9999732062348441</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000317549159956</v>
+        <v>0.9998717904206255</v>
       </c>
       <c r="D4">
-        <v>0.9987298001990252</v>
+        <v>1.000512836960587</v>
       </c>
       <c r="E4">
-        <v>1.000317549159956</v>
+        <v>0.9998717904206255</v>
       </c>
       <c r="F4">
-        <v>0.9987298001990252</v>
+        <v>1.000512836960587</v>
       </c>
       <c r="G4">
-        <v>1.000317549159956</v>
+        <v>0.9998717904206255</v>
       </c>
       <c r="H4">
-        <v>1.000846799433039</v>
+        <v>0.9996581084909237</v>
       </c>
       <c r="I4">
-        <v>0.9993013902998826</v>
+        <v>1.000282061457191</v>
       </c>
       <c r="J4">
-        <v>1.000317549159956</v>
+        <v>0.9998717904206255</v>
       </c>
       <c r="K4">
-        <v>1.000317549159956</v>
+        <v>0.9998717904206255</v>
       </c>
       <c r="L4">
-        <v>1.000317549159956</v>
+        <v>0.9998717904206255</v>
       </c>
       <c r="M4">
-        <v>0.9995236746794908</v>
+        <v>1.000192313690606</v>
       </c>
       <c r="N4">
-        <v>0.9995236746794908</v>
+        <v>1.000192313690606</v>
       </c>
       <c r="O4">
-        <v>0.999449579886288</v>
+        <v>1.000222229612801</v>
       </c>
       <c r="P4">
-        <v>0.9997882995063126</v>
+        <v>1.000085472600613</v>
       </c>
       <c r="Q4">
-        <v>0.9997882995063126</v>
+        <v>1.000085472600613</v>
       </c>
       <c r="R4">
-        <v>0.9999206119197235</v>
+        <v>1.000032052055616</v>
       </c>
       <c r="S4">
-        <v>0.9999206119197235</v>
+        <v>1.000032052055616</v>
       </c>
       <c r="T4">
-        <v>0.9999717729019694</v>
+        <v>1.000011396361763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9998664827161402</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="D5">
-        <v>1.000534067154176</v>
+        <v>0.9961411315785661</v>
       </c>
       <c r="E5">
-        <v>0.9998664827161402</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="F5">
-        <v>1.000534067154176</v>
+        <v>0.9961411315785661</v>
       </c>
       <c r="G5">
-        <v>0.9998664827161402</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="H5">
-        <v>0.9996439549279525</v>
+        <v>1.00257257304429</v>
       </c>
       <c r="I5">
-        <v>1.000293739380404</v>
+        <v>0.9978776279829844</v>
       </c>
       <c r="J5">
-        <v>0.9998664827161402</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="K5">
-        <v>0.9998664827161402</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="L5">
-        <v>0.9998664827161402</v>
+        <v>1.000964710905179</v>
       </c>
       <c r="M5">
-        <v>1.000200274935158</v>
+        <v>0.9985529212418727</v>
       </c>
       <c r="N5">
-        <v>1.000200274935158</v>
+        <v>0.9985529212418727</v>
       </c>
       <c r="O5">
-        <v>1.00023142975024</v>
+        <v>0.99832782348891</v>
       </c>
       <c r="P5">
-        <v>1.000089010862152</v>
+        <v>0.9993568511296415</v>
       </c>
       <c r="Q5">
-        <v>1.000089010862152</v>
+        <v>0.9993568511296415</v>
       </c>
       <c r="R5">
-        <v>1.000033378825649</v>
+        <v>0.9997588160735258</v>
       </c>
       <c r="S5">
-        <v>1.000033378825649</v>
+        <v>0.9997588160735258</v>
       </c>
       <c r="T5">
-        <v>1.000011868268492</v>
+        <v>0.9999142442202297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9995071309776453</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="D6">
-        <v>1.001971475032492</v>
+        <v>0.9987298001990252</v>
       </c>
       <c r="E6">
-        <v>0.9995071309776453</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="F6">
-        <v>1.001971475032492</v>
+        <v>0.9987298001990252</v>
       </c>
       <c r="G6">
-        <v>0.9995071309776453</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="H6">
-        <v>0.9986856817025656</v>
+        <v>1.000846799433039</v>
       </c>
       <c r="I6">
-        <v>1.001084336715906</v>
+        <v>0.9993013902998826</v>
       </c>
       <c r="J6">
-        <v>0.9995071309776453</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="K6">
-        <v>0.9995071309776453</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="L6">
-        <v>0.9995071309776453</v>
+        <v>1.000317549159956</v>
       </c>
       <c r="M6">
-        <v>1.000739303005069</v>
+        <v>0.9995236746794908</v>
       </c>
       <c r="N6">
-        <v>1.000739303005069</v>
+        <v>0.9995236746794908</v>
       </c>
       <c r="O6">
-        <v>1.000854314242014</v>
+        <v>0.999449579886288</v>
       </c>
       <c r="P6">
-        <v>1.000328578995928</v>
+        <v>0.9997882995063126</v>
       </c>
       <c r="Q6">
-        <v>1.000328578995928</v>
+        <v>0.9997882995063126</v>
       </c>
       <c r="R6">
-        <v>1.000123216991357</v>
+        <v>0.9999206119197235</v>
       </c>
       <c r="S6">
-        <v>1.000123216991357</v>
+        <v>0.9999206119197235</v>
       </c>
       <c r="T6">
-        <v>1.000043814397316</v>
+        <v>0.9999717729019694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999887877686763</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="D7">
-        <v>1.000044849772309</v>
+        <v>1.000534067154176</v>
       </c>
       <c r="E7">
-        <v>0.9999887877686763</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="F7">
-        <v>1.000044849772309</v>
+        <v>1.000534067154176</v>
       </c>
       <c r="G7">
-        <v>0.9999887877686763</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="H7">
-        <v>0.9999701003848918</v>
+        <v>0.9996439549279525</v>
       </c>
       <c r="I7">
-        <v>1.000024667336788</v>
+        <v>1.000293739380404</v>
       </c>
       <c r="J7">
-        <v>0.9999887877686763</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="K7">
-        <v>0.9999887877686763</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="L7">
-        <v>0.9999887877686763</v>
+        <v>0.9998664827161402</v>
       </c>
       <c r="M7">
-        <v>1.000016818770493</v>
+        <v>1.000200274935158</v>
       </c>
       <c r="N7">
-        <v>1.000016818770493</v>
+        <v>1.000200274935158</v>
       </c>
       <c r="O7">
-        <v>1.000019434959258</v>
+        <v>1.00023142975024</v>
       </c>
       <c r="P7">
-        <v>1.00000747510322</v>
+        <v>1.000089010862152</v>
       </c>
       <c r="Q7">
-        <v>1.00000747510322</v>
+        <v>1.000089010862152</v>
       </c>
       <c r="R7">
-        <v>1.000002803269584</v>
+        <v>1.000033378825649</v>
       </c>
       <c r="S7">
-        <v>1.000002803269584</v>
+        <v>1.000033378825649</v>
       </c>
       <c r="T7">
-        <v>1.000000996800003</v>
+        <v>1.000011868268492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999987715042993</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="D8">
-        <v>1.000004911836918</v>
+        <v>1.001971475032492</v>
       </c>
       <c r="E8">
-        <v>0.9999987715042993</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="F8">
-        <v>1.000004911836918</v>
+        <v>1.001971475032492</v>
       </c>
       <c r="G8">
-        <v>0.9999987715042993</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="H8">
-        <v>0.9999967257365153</v>
+        <v>0.9986856817025656</v>
       </c>
       <c r="I8">
-        <v>1.000002701304022</v>
+        <v>1.001084336715906</v>
       </c>
       <c r="J8">
-        <v>0.9999987715042993</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="K8">
-        <v>0.9999987715042993</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="L8">
-        <v>0.9999987715042993</v>
+        <v>0.9995071309776453</v>
       </c>
       <c r="M8">
-        <v>1.000001841670609</v>
+        <v>1.000739303005069</v>
       </c>
       <c r="N8">
-        <v>1.000001841670609</v>
+        <v>1.000739303005069</v>
       </c>
       <c r="O8">
-        <v>1.00000212821508</v>
+        <v>1.000854314242014</v>
       </c>
       <c r="P8">
-        <v>1.000000818281839</v>
+        <v>1.000328578995928</v>
       </c>
       <c r="Q8">
-        <v>1.000000818281839</v>
+        <v>1.000328578995928</v>
       </c>
       <c r="R8">
-        <v>1.000000306587454</v>
+        <v>1.000123216991357</v>
       </c>
       <c r="S8">
-        <v>1.000000306587454</v>
+        <v>1.000123216991357</v>
       </c>
       <c r="T8">
-        <v>1.000000108898392</v>
+        <v>1.000043814397316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999728922909594</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="D9">
-        <v>1.000108435056343</v>
+        <v>1.000044849772309</v>
       </c>
       <c r="E9">
-        <v>0.9999728922909594</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="F9">
-        <v>1.000108435056343</v>
+        <v>1.000044849772309</v>
       </c>
       <c r="G9">
-        <v>0.9999728922909594</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="H9">
-        <v>0.9999277104995293</v>
+        <v>0.9999701003848918</v>
       </c>
       <c r="I9">
-        <v>1.000059639467257</v>
+        <v>1.000024667336788</v>
       </c>
       <c r="J9">
-        <v>0.9999728922909594</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="K9">
-        <v>0.9999728922909594</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="L9">
-        <v>0.9999728922909594</v>
+        <v>0.9999887877686763</v>
       </c>
       <c r="M9">
-        <v>1.000040663673651</v>
+        <v>1.000016818770493</v>
       </c>
       <c r="N9">
-        <v>1.000040663673651</v>
+        <v>1.000016818770493</v>
       </c>
       <c r="O9">
-        <v>1.000046988938186</v>
+        <v>1.000019434959258</v>
       </c>
       <c r="P9">
-        <v>1.000018073212754</v>
+        <v>1.00000747510322</v>
       </c>
       <c r="Q9">
-        <v>1.000018073212754</v>
+        <v>1.00000747510322</v>
       </c>
       <c r="R9">
-        <v>1.000006777982305</v>
+        <v>1.000002803269584</v>
       </c>
       <c r="S9">
-        <v>1.000006777982305</v>
+        <v>1.000002803269584</v>
       </c>
       <c r="T9">
-        <v>1.000002410316001</v>
+        <v>1.000000996800003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9994997707228005</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="D10">
-        <v>1.002000916390823</v>
+        <v>1.000004911836918</v>
       </c>
       <c r="E10">
-        <v>0.9994997707228005</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="F10">
-        <v>1.002000916390823</v>
+        <v>1.000004911836918</v>
       </c>
       <c r="G10">
-        <v>0.9994997707228005</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="H10">
-        <v>0.9986660544911239</v>
+        <v>0.9999967257365153</v>
       </c>
       <c r="I10">
-        <v>1.001100529313744</v>
+        <v>1.000002701304022</v>
       </c>
       <c r="J10">
-        <v>0.9994997707228005</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="K10">
-        <v>0.9994997707228005</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="L10">
-        <v>0.9994997707228005</v>
+        <v>0.9999987715042993</v>
       </c>
       <c r="M10">
-        <v>1.000750343556812</v>
+        <v>1.000001841670609</v>
       </c>
       <c r="N10">
-        <v>1.000750343556812</v>
+        <v>1.000001841670609</v>
       </c>
       <c r="O10">
-        <v>1.000867072142456</v>
+        <v>1.00000212821508</v>
       </c>
       <c r="P10">
-        <v>1.000333485945475</v>
+        <v>1.000000818281839</v>
       </c>
       <c r="Q10">
-        <v>1.000333485945475</v>
+        <v>1.000000818281839</v>
       </c>
       <c r="R10">
-        <v>1.000125057139806</v>
+        <v>1.000000306587454</v>
       </c>
       <c r="S10">
-        <v>1.000125057139806</v>
+        <v>1.000000306587454</v>
       </c>
       <c r="T10">
-        <v>1.000044468727349</v>
+        <v>1.000000108898392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000253032389549</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="D11">
-        <v>0.9989878745751268</v>
+        <v>1.000108435056343</v>
       </c>
       <c r="E11">
-        <v>1.000253032389549</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="F11">
-        <v>0.9989878745751268</v>
+        <v>1.000108435056343</v>
       </c>
       <c r="G11">
-        <v>1.000253032389549</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="H11">
-        <v>1.000674749198686</v>
+        <v>0.9999277104995293</v>
       </c>
       <c r="I11">
-        <v>0.9994433311801609</v>
+        <v>1.000059639467257</v>
       </c>
       <c r="J11">
-        <v>1.000253032389549</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="K11">
-        <v>1.000253032389549</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="L11">
-        <v>1.000253032389549</v>
+        <v>0.9999728922909594</v>
       </c>
       <c r="M11">
-        <v>0.9996204534823377</v>
+        <v>1.000040663673651</v>
       </c>
       <c r="N11">
-        <v>0.9996204534823377</v>
+        <v>1.000040663673651</v>
       </c>
       <c r="O11">
-        <v>0.9995614127149454</v>
+        <v>1.000046988938186</v>
       </c>
       <c r="P11">
-        <v>0.9998313131180746</v>
+        <v>1.000018073212754</v>
       </c>
       <c r="Q11">
-        <v>0.9998313131180746</v>
+        <v>1.000018073212754</v>
       </c>
       <c r="R11">
-        <v>0.9999367429359431</v>
+        <v>1.000006777982305</v>
       </c>
       <c r="S11">
-        <v>0.9999367429359431</v>
+        <v>1.000006777982305</v>
       </c>
       <c r="T11">
-        <v>0.9999775086871033</v>
+        <v>1.000002410316001</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.999860666705263</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="D12">
-        <v>1.000557331210524</v>
+        <v>1.002000916390823</v>
       </c>
       <c r="E12">
-        <v>0.999860666705263</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="F12">
-        <v>1.000557331210524</v>
+        <v>1.002000916390823</v>
       </c>
       <c r="G12">
-        <v>0.999860666705263</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="H12">
-        <v>0.999628446484211</v>
+        <v>0.9986660544911239</v>
       </c>
       <c r="I12">
-        <v>1.000306535221053</v>
+        <v>1.001100529313744</v>
       </c>
       <c r="J12">
-        <v>0.999860666705263</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="K12">
-        <v>0.999860666705263</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="L12">
-        <v>0.999860666705263</v>
+        <v>0.9994997707228005</v>
       </c>
       <c r="M12">
-        <v>1.000208998957894</v>
+        <v>1.000750343556812</v>
       </c>
       <c r="N12">
-        <v>1.000208998957894</v>
+        <v>1.000750343556812</v>
       </c>
       <c r="O12">
-        <v>1.000241511045614</v>
+        <v>1.000867072142456</v>
       </c>
       <c r="P12">
-        <v>1.000092888207017</v>
+        <v>1.000333485945475</v>
       </c>
       <c r="Q12">
-        <v>1.000092888207017</v>
+        <v>1.000333485945475</v>
       </c>
       <c r="R12">
-        <v>1.000034832831578</v>
+        <v>1.000125057139806</v>
       </c>
       <c r="S12">
-        <v>1.000034832831578</v>
+        <v>1.000125057139806</v>
       </c>
       <c r="T12">
-        <v>1.000012385505263</v>
+        <v>1.000044468727349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000098382039551</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="D13">
-        <v>0.9996064713472725</v>
+        <v>0.9989878745751268</v>
       </c>
       <c r="E13">
-        <v>1.000098382039551</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="F13">
-        <v>0.9996064713472725</v>
+        <v>0.9989878745751268</v>
       </c>
       <c r="G13">
-        <v>1.000098382039551</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="H13">
-        <v>1.000262355195357</v>
+        <v>1.000674749198686</v>
       </c>
       <c r="I13">
-        <v>0.9997835580746239</v>
+        <v>0.9994433311801609</v>
       </c>
       <c r="J13">
-        <v>1.000098382039551</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="K13">
-        <v>1.000098382039551</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="L13">
-        <v>1.000098382039551</v>
+        <v>1.000253032389549</v>
       </c>
       <c r="M13">
-        <v>0.9998524266934118</v>
+        <v>0.9996204534823377</v>
       </c>
       <c r="N13">
-        <v>0.9998524266934118</v>
+        <v>0.9996204534823377</v>
       </c>
       <c r="O13">
-        <v>0.9998294704871492</v>
+        <v>0.9995614127149454</v>
       </c>
       <c r="P13">
-        <v>0.9999344118087915</v>
+        <v>0.9998313131180746</v>
       </c>
       <c r="Q13">
-        <v>0.9999344118087915</v>
+        <v>0.9998313131180746</v>
       </c>
       <c r="R13">
-        <v>0.9999754043664814</v>
+        <v>0.9999367429359431</v>
       </c>
       <c r="S13">
-        <v>0.9999754043664814</v>
+        <v>0.9999367429359431</v>
       </c>
       <c r="T13">
-        <v>0.999991255122651</v>
+        <v>0.9999775086871033</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.99913575</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="D14">
-        <v>1.003456999999999</v>
+        <v>1.000557331210524</v>
       </c>
       <c r="E14">
-        <v>0.99913575</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="F14">
-        <v>1.003456999999999</v>
+        <v>1.000557331210524</v>
       </c>
       <c r="G14">
-        <v>0.99913575</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="H14">
-        <v>0.9976953299999994</v>
+        <v>0.999628446484211</v>
       </c>
       <c r="I14">
-        <v>1.0019014</v>
+        <v>1.000306535221053</v>
       </c>
       <c r="J14">
-        <v>0.99913575</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="K14">
-        <v>0.99913575</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="L14">
-        <v>0.99913575</v>
+        <v>0.999860666705263</v>
       </c>
       <c r="M14">
-        <v>1.001296374999999</v>
+        <v>1.000208998957894</v>
       </c>
       <c r="N14">
-        <v>1.001296374999999</v>
+        <v>1.000208998957894</v>
       </c>
       <c r="O14">
-        <v>1.00149805</v>
+        <v>1.000241511045614</v>
       </c>
       <c r="P14">
-        <v>1.000576166666666</v>
+        <v>1.000092888207017</v>
       </c>
       <c r="Q14">
-        <v>1.000576166666666</v>
+        <v>1.000092888207017</v>
       </c>
       <c r="R14">
-        <v>1.0002160625</v>
+        <v>1.000034832831578</v>
       </c>
       <c r="S14">
-        <v>1.0002160625</v>
+        <v>1.000034832831578</v>
       </c>
       <c r="T14">
-        <v>1.00007683</v>
+        <v>1.000012385505263</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0010055</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="D15">
-        <v>0.9959779000000001</v>
+        <v>0.9996064713472725</v>
       </c>
       <c r="E15">
-        <v>1.0010055</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="F15">
-        <v>0.9959779000000001</v>
+        <v>0.9996064713472725</v>
       </c>
       <c r="G15">
-        <v>1.0010055</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="H15">
-        <v>1.0026814</v>
+        <v>1.000262355195357</v>
       </c>
       <c r="I15">
-        <v>0.99778785</v>
+        <v>0.9997835580746239</v>
       </c>
       <c r="J15">
-        <v>1.0010055</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>1.000098382039551</v>
       </c>
       <c r="M15">
-        <v>0.9984917</v>
+        <v>0.9998524266934118</v>
       </c>
       <c r="N15">
-        <v>0.9984917</v>
+        <v>0.9998524266934118</v>
       </c>
       <c r="O15">
-        <v>0.9982570833333333</v>
+        <v>0.9998294704871492</v>
       </c>
       <c r="P15">
-        <v>0.9993296333333334</v>
+        <v>0.9999344118087915</v>
       </c>
       <c r="Q15">
-        <v>0.9993296333333334</v>
+        <v>0.9999344118087915</v>
       </c>
       <c r="R15">
-        <v>0.9997486</v>
+        <v>0.9999754043664814</v>
       </c>
       <c r="S15">
-        <v>0.9997486</v>
+        <v>0.9999754043664814</v>
       </c>
       <c r="T15">
-        <v>0.9999106083333333</v>
+        <v>0.999991255122651</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0023351</v>
+        <v>0.99913575</v>
       </c>
       <c r="D16">
-        <v>0.99065943</v>
+        <v>1.003456999999999</v>
       </c>
       <c r="E16">
-        <v>1.0023351</v>
+        <v>0.99913575</v>
       </c>
       <c r="F16">
-        <v>0.99065943</v>
+        <v>1.003456999999999</v>
       </c>
       <c r="G16">
-        <v>1.0023351</v>
+        <v>0.99913575</v>
       </c>
       <c r="H16">
-        <v>1.006227</v>
+        <v>0.9976953299999994</v>
       </c>
       <c r="I16">
-        <v>0.99486269</v>
+        <v>1.0019014</v>
       </c>
       <c r="J16">
-        <v>1.0023351</v>
+        <v>0.99913575</v>
       </c>
       <c r="K16">
-        <v>1.0023351</v>
+        <v>0.99913575</v>
       </c>
       <c r="L16">
-        <v>1.0023351</v>
+        <v>0.99913575</v>
       </c>
       <c r="M16">
-        <v>0.996497265</v>
+        <v>1.001296374999999</v>
       </c>
       <c r="N16">
-        <v>0.996497265</v>
+        <v>1.001296374999999</v>
       </c>
       <c r="O16">
-        <v>0.9959524066666666</v>
+        <v>1.00149805</v>
       </c>
       <c r="P16">
-        <v>0.99844321</v>
+        <v>1.000576166666666</v>
       </c>
       <c r="Q16">
-        <v>0.99844321</v>
+        <v>1.000576166666666</v>
       </c>
       <c r="R16">
-        <v>0.9994161825000001</v>
+        <v>1.0002160625</v>
       </c>
       <c r="S16">
-        <v>0.9994161825000001</v>
+        <v>1.0002160625</v>
       </c>
       <c r="T16">
-        <v>0.9997924033333333</v>
+        <v>1.00007683</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0009977</v>
+        <v>1.0010055</v>
       </c>
       <c r="D17">
-        <v>0.9960090700000001</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E17">
-        <v>1.0009977</v>
+        <v>1.0010055</v>
       </c>
       <c r="F17">
-        <v>0.9960090700000001</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G17">
-        <v>1.0009977</v>
+        <v>1.0010055</v>
       </c>
       <c r="H17">
-        <v>1.0026606</v>
+        <v>1.0026814</v>
       </c>
       <c r="I17">
-        <v>0.9978049900000001</v>
+        <v>0.99778785</v>
       </c>
       <c r="J17">
-        <v>1.0009977</v>
+        <v>1.0010055</v>
       </c>
       <c r="K17">
-        <v>1.0009977</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>1.0009977</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>0.998503385</v>
+        <v>0.9984917</v>
       </c>
       <c r="N17">
-        <v>0.998503385</v>
+        <v>0.9984917</v>
       </c>
       <c r="O17">
-        <v>0.9982705866666667</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P17">
-        <v>0.9993348233333333</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q17">
-        <v>0.9993348233333333</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R17">
-        <v>0.9997505425000001</v>
+        <v>0.9997486</v>
       </c>
       <c r="S17">
-        <v>0.9997505425000001</v>
+        <v>0.9997486</v>
       </c>
       <c r="T17">
-        <v>0.9999112933333335</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996941175342466</v>
+        <v>1.0023351</v>
       </c>
       <c r="D18">
-        <v>1.001223523287672</v>
+        <v>0.99065943</v>
       </c>
       <c r="E18">
-        <v>0.9996941175342466</v>
+        <v>1.0023351</v>
       </c>
       <c r="F18">
-        <v>1.001223523287672</v>
+        <v>0.99065943</v>
       </c>
       <c r="G18">
-        <v>0.9996941175342466</v>
+        <v>1.0023351</v>
       </c>
       <c r="H18">
-        <v>0.9991843189041093</v>
+        <v>1.006227</v>
       </c>
       <c r="I18">
-        <v>1.000672940410959</v>
+        <v>0.99486269</v>
       </c>
       <c r="J18">
-        <v>0.9996941175342466</v>
+        <v>1.0023351</v>
       </c>
       <c r="K18">
-        <v>0.9996941175342466</v>
+        <v>1.0023351</v>
       </c>
       <c r="L18">
-        <v>0.9996941175342466</v>
+        <v>1.0023351</v>
       </c>
       <c r="M18">
-        <v>1.000458820410959</v>
+        <v>0.996497265</v>
       </c>
       <c r="N18">
-        <v>1.000458820410959</v>
+        <v>0.996497265</v>
       </c>
       <c r="O18">
-        <v>1.000530193744292</v>
+        <v>0.9959524066666666</v>
       </c>
       <c r="P18">
-        <v>1.000203919452055</v>
+        <v>0.99844321</v>
       </c>
       <c r="Q18">
-        <v>1.000203919452055</v>
+        <v>0.99844321</v>
       </c>
       <c r="R18">
-        <v>1.000076468972603</v>
+        <v>0.9994161825000001</v>
       </c>
       <c r="S18">
-        <v>1.000076468972603</v>
+        <v>0.9994161825000001</v>
       </c>
       <c r="T18">
-        <v>1.000027189200913</v>
+        <v>0.9997924033333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000395924210526</v>
+        <v>1.0009977</v>
       </c>
       <c r="D19">
-        <v>0.9984162626315788</v>
+        <v>0.9960090700000001</v>
       </c>
       <c r="E19">
-        <v>1.000395924210526</v>
+        <v>1.0009977</v>
       </c>
       <c r="F19">
-        <v>0.9984162626315788</v>
+        <v>0.9960090700000001</v>
       </c>
       <c r="G19">
-        <v>1.000395924210526</v>
+        <v>1.0009977</v>
       </c>
       <c r="H19">
-        <v>1.001055823157895</v>
+        <v>1.0026606</v>
       </c>
       <c r="I19">
-        <v>0.9991289463157894</v>
+        <v>0.9978049900000001</v>
       </c>
       <c r="J19">
-        <v>1.000395924210526</v>
+        <v>1.0009977</v>
       </c>
       <c r="K19">
-        <v>1.000395924210526</v>
+        <v>1.0009977</v>
       </c>
       <c r="L19">
-        <v>1.000395924210526</v>
+        <v>1.0009977</v>
       </c>
       <c r="M19">
-        <v>0.9994060934210525</v>
+        <v>0.998503385</v>
       </c>
       <c r="N19">
-        <v>0.9994060934210525</v>
+        <v>0.998503385</v>
       </c>
       <c r="O19">
-        <v>0.9993137110526314</v>
+        <v>0.9982705866666667</v>
       </c>
       <c r="P19">
-        <v>0.9997360370175438</v>
+        <v>0.9993348233333333</v>
       </c>
       <c r="Q19">
-        <v>0.9997360370175438</v>
+        <v>0.9993348233333333</v>
       </c>
       <c r="R19">
-        <v>0.9999010088157894</v>
+        <v>0.9997505425000001</v>
       </c>
       <c r="S19">
-        <v>0.9999010088157894</v>
+        <v>0.9997505425000001</v>
       </c>
       <c r="T19">
-        <v>0.9999648007894736</v>
+        <v>0.9999112933333335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000833302105263</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="D20">
-        <v>0.9966667668421052</v>
+        <v>1.001223523287672</v>
       </c>
       <c r="E20">
-        <v>1.000833302105263</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="F20">
-        <v>0.9966667668421052</v>
+        <v>1.001223523287672</v>
       </c>
       <c r="G20">
-        <v>1.000833302105263</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="H20">
-        <v>1.00222215</v>
+        <v>0.9991843189041093</v>
       </c>
       <c r="I20">
-        <v>0.9981667294736842</v>
+        <v>1.000672940410959</v>
       </c>
       <c r="J20">
-        <v>1.000833302105263</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="K20">
-        <v>1.000833302105263</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="L20">
-        <v>1.000833302105263</v>
+        <v>0.9996941175342466</v>
       </c>
       <c r="M20">
-        <v>0.9987500344736842</v>
+        <v>1.000458820410959</v>
       </c>
       <c r="N20">
-        <v>0.9987500344736842</v>
+        <v>1.000458820410959</v>
       </c>
       <c r="O20">
-        <v>0.9985555994736842</v>
+        <v>1.000530193744292</v>
       </c>
       <c r="P20">
-        <v>0.9994444570175438</v>
+        <v>1.000203919452055</v>
       </c>
       <c r="Q20">
-        <v>0.9994444570175438</v>
+        <v>1.000203919452055</v>
       </c>
       <c r="R20">
-        <v>0.9997916682894736</v>
+        <v>1.000076468972603</v>
       </c>
       <c r="S20">
-        <v>0.9997916682894736</v>
+        <v>1.000076468972603</v>
       </c>
       <c r="T20">
-        <v>0.9999259254385965</v>
+        <v>1.000027189200913</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.99965257687344</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="D21">
-        <v>1.001389717296725</v>
+        <v>0.9984162626315788</v>
       </c>
       <c r="E21">
-        <v>0.99965257687344</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="F21">
-        <v>1.001389717296725</v>
+        <v>0.9984162626315788</v>
       </c>
       <c r="G21">
-        <v>0.99965257687344</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="H21">
-        <v>0.9990735286551363</v>
+        <v>1.001055823157895</v>
       </c>
       <c r="I21">
-        <v>1.000764333309126</v>
+        <v>0.9991289463157894</v>
       </c>
       <c r="J21">
-        <v>0.99965257687344</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="K21">
-        <v>0.99965257687344</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="L21">
-        <v>0.99965257687344</v>
+        <v>1.000395924210526</v>
       </c>
       <c r="M21">
-        <v>1.000521147085082</v>
+        <v>0.9994060934210525</v>
       </c>
       <c r="N21">
-        <v>1.000521147085082</v>
+        <v>0.9994060934210525</v>
       </c>
       <c r="O21">
-        <v>1.000602209159763</v>
+        <v>0.9993137110526314</v>
       </c>
       <c r="P21">
-        <v>1.000231623681201</v>
+        <v>0.9997360370175438</v>
       </c>
       <c r="Q21">
-        <v>1.000231623681201</v>
+        <v>0.9997360370175438</v>
       </c>
       <c r="R21">
-        <v>1.000086861979261</v>
+        <v>0.9999010088157894</v>
       </c>
       <c r="S21">
-        <v>1.000086861979261</v>
+        <v>0.9999010088157894</v>
       </c>
       <c r="T21">
-        <v>1.000030884980218</v>
+        <v>0.9999648007894736</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999048832169725</v>
+        <v>1.000833302105263</v>
       </c>
       <c r="D22">
-        <v>1.000380462842394</v>
+        <v>0.9966667668421052</v>
       </c>
       <c r="E22">
-        <v>0.9999048832169725</v>
+        <v>1.000833302105263</v>
       </c>
       <c r="F22">
-        <v>1.000380462842394</v>
+        <v>0.9966667668421052</v>
       </c>
       <c r="G22">
-        <v>0.9999048832169725</v>
+        <v>1.000833302105263</v>
       </c>
       <c r="H22">
-        <v>0.9997463593638564</v>
+        <v>1.00222215</v>
       </c>
       <c r="I22">
-        <v>1.000209256283895</v>
+        <v>0.9981667294736842</v>
       </c>
       <c r="J22">
-        <v>0.9999048832169725</v>
+        <v>1.000833302105263</v>
       </c>
       <c r="K22">
-        <v>0.9999048832169725</v>
+        <v>1.000833302105263</v>
       </c>
       <c r="L22">
-        <v>0.9999048832169725</v>
+        <v>1.000833302105263</v>
       </c>
       <c r="M22">
-        <v>1.000142673029683</v>
+        <v>0.9987500344736842</v>
       </c>
       <c r="N22">
-        <v>1.000142673029683</v>
+        <v>0.9987500344736842</v>
       </c>
       <c r="O22">
-        <v>1.000164867447754</v>
+        <v>0.9985555994736842</v>
       </c>
       <c r="P22">
-        <v>1.000063409758779</v>
+        <v>0.9994444570175438</v>
       </c>
       <c r="Q22">
-        <v>1.000063409758779</v>
+        <v>0.9994444570175438</v>
       </c>
       <c r="R22">
-        <v>1.000023778123328</v>
+        <v>0.9997916682894736</v>
       </c>
       <c r="S22">
-        <v>1.000023778123328</v>
+        <v>0.9997916682894736</v>
       </c>
       <c r="T22">
-        <v>1.000008454690177</v>
+        <v>0.9999259254385965</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9999441412042449</v>
+        <v>0.99965257687344</v>
       </c>
       <c r="D23">
-        <v>1.000223439760814</v>
+        <v>1.001389717296725</v>
       </c>
       <c r="E23">
-        <v>0.9999441412042449</v>
+        <v>0.99965257687344</v>
       </c>
       <c r="F23">
-        <v>1.000223439760814</v>
+        <v>1.001389717296725</v>
       </c>
       <c r="G23">
-        <v>0.9999441412042449</v>
+        <v>0.99965257687344</v>
       </c>
       <c r="H23">
-        <v>0.9998510489799155</v>
+        <v>0.9990735286551363</v>
       </c>
       <c r="I23">
-        <v>1.000122889135115</v>
+        <v>1.000764333309126</v>
       </c>
       <c r="J23">
-        <v>0.9999441412042449</v>
+        <v>0.99965257687344</v>
       </c>
       <c r="K23">
-        <v>0.9999441412042449</v>
+        <v>0.99965257687344</v>
       </c>
       <c r="L23">
-        <v>0.9999441412042449</v>
+        <v>0.99965257687344</v>
       </c>
       <c r="M23">
-        <v>1.00008379048253</v>
+        <v>1.000521147085082</v>
       </c>
       <c r="N23">
-        <v>1.00008379048253</v>
+        <v>1.000521147085082</v>
       </c>
       <c r="O23">
-        <v>1.000096823366725</v>
+        <v>1.000602209159763</v>
       </c>
       <c r="P23">
-        <v>1.000037240723102</v>
+        <v>1.000231623681201</v>
       </c>
       <c r="Q23">
-        <v>1.000037240723102</v>
+        <v>1.000231623681201</v>
       </c>
       <c r="R23">
-        <v>1.000013965843387</v>
+        <v>1.000086861979261</v>
       </c>
       <c r="S23">
-        <v>1.000013965843387</v>
+        <v>1.000086861979261</v>
       </c>
       <c r="T23">
-        <v>1.000004966914763</v>
+        <v>1.000030884980218</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.999985189284066</v>
+        <v>0.9999048832169725</v>
       </c>
       <c r="D24">
-        <v>1.000059245806839</v>
+        <v>1.000380462842394</v>
       </c>
       <c r="E24">
-        <v>0.999985189284066</v>
+        <v>0.9999048832169725</v>
       </c>
       <c r="F24">
-        <v>1.000059245806839</v>
+        <v>1.000380462842394</v>
       </c>
       <c r="G24">
-        <v>0.999985189284066</v>
+        <v>0.9999048832169725</v>
       </c>
       <c r="H24">
-        <v>0.9999605057015554</v>
+        <v>0.9997463593638564</v>
       </c>
       <c r="I24">
-        <v>1.000032583891463</v>
+        <v>1.000209256283895</v>
       </c>
       <c r="J24">
-        <v>0.999985189284066</v>
+        <v>0.9999048832169725</v>
       </c>
       <c r="K24">
-        <v>0.999985189284066</v>
+        <v>0.9999048832169725</v>
       </c>
       <c r="L24">
-        <v>0.999985189284066</v>
+        <v>0.9999048832169725</v>
       </c>
       <c r="M24">
-        <v>1.000022217545453</v>
+        <v>1.000142673029683</v>
       </c>
       <c r="N24">
-        <v>1.000022217545453</v>
+        <v>1.000142673029683</v>
       </c>
       <c r="O24">
-        <v>1.000025672994123</v>
+        <v>1.000164867447754</v>
       </c>
       <c r="P24">
-        <v>1.000009874791657</v>
+        <v>1.000063409758779</v>
       </c>
       <c r="Q24">
-        <v>1.000009874791657</v>
+        <v>1.000063409758779</v>
       </c>
       <c r="R24">
-        <v>1.000003703414759</v>
+        <v>1.000023778123328</v>
       </c>
       <c r="S24">
-        <v>1.000003703414759</v>
+        <v>1.000023778123328</v>
       </c>
       <c r="T24">
-        <v>1.000001317208676</v>
+        <v>1.000008454690177</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.000912182632532</v>
+        <v>0.9999441412042449</v>
       </c>
       <c r="D25">
-        <v>0.9963512984660673</v>
+        <v>1.000223439760814</v>
       </c>
       <c r="E25">
-        <v>1.000912182632532</v>
+        <v>0.9999441412042449</v>
       </c>
       <c r="F25">
-        <v>0.9963512984660673</v>
+        <v>1.000223439760814</v>
       </c>
       <c r="G25">
-        <v>1.000912182632532</v>
+        <v>0.9999441412042449</v>
       </c>
       <c r="H25">
-        <v>1.002432459854972</v>
+        <v>0.9998510489799155</v>
       </c>
       <c r="I25">
-        <v>0.9979932134917705</v>
+        <v>1.000122889135115</v>
       </c>
       <c r="J25">
-        <v>1.000912182632532</v>
+        <v>0.9999441412042449</v>
       </c>
       <c r="K25">
-        <v>1.000912182632532</v>
+        <v>0.9999441412042449</v>
       </c>
       <c r="L25">
-        <v>1.000912182632532</v>
+        <v>0.9999441412042449</v>
       </c>
       <c r="M25">
-        <v>0.9986317405492997</v>
+        <v>1.00008379048253</v>
       </c>
       <c r="N25">
-        <v>0.9986317405492997</v>
+        <v>1.00008379048253</v>
       </c>
       <c r="O25">
-        <v>0.99841889819679</v>
+        <v>1.000096823366725</v>
       </c>
       <c r="P25">
-        <v>0.9993918879103773</v>
+        <v>1.000037240723102</v>
       </c>
       <c r="Q25">
-        <v>0.9993918879103773</v>
+        <v>1.000037240723102</v>
       </c>
       <c r="R25">
-        <v>0.999771961590916</v>
+        <v>1.000013965843387</v>
       </c>
       <c r="S25">
-        <v>0.999771961590916</v>
+        <v>1.000013965843387</v>
       </c>
       <c r="T25">
-        <v>0.9999189199517344</v>
+        <v>1.000004966914763</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000241709078032</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="D26">
-        <v>0.9990331698797065</v>
+        <v>1.000059245806839</v>
       </c>
       <c r="E26">
-        <v>1.000241709078032</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="F26">
-        <v>0.9990331698797065</v>
+        <v>1.000059245806839</v>
       </c>
       <c r="G26">
-        <v>1.000241709078032</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="H26">
-        <v>1.000644558073614</v>
+        <v>0.9999605057015554</v>
       </c>
       <c r="I26">
-        <v>0.9994682457416542</v>
+        <v>1.000032583891463</v>
       </c>
       <c r="J26">
-        <v>1.000241709078032</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="K26">
-        <v>1.000241709078032</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="L26">
-        <v>1.000241709078032</v>
+        <v>0.999985189284066</v>
       </c>
       <c r="M26">
-        <v>0.9996374394788694</v>
+        <v>1.000022217545453</v>
       </c>
       <c r="N26">
-        <v>0.9996374394788694</v>
+        <v>1.000022217545453</v>
       </c>
       <c r="O26">
-        <v>0.9995810415664644</v>
+        <v>1.000025672994123</v>
       </c>
       <c r="P26">
-        <v>0.9998388626785903</v>
+        <v>1.000009874791657</v>
       </c>
       <c r="Q26">
-        <v>0.9998388626785903</v>
+        <v>1.000009874791657</v>
       </c>
       <c r="R26">
-        <v>0.9999395742784508</v>
+        <v>1.000003703414759</v>
       </c>
       <c r="S26">
-        <v>0.9999395742784508</v>
+        <v>1.000003703414759</v>
       </c>
       <c r="T26">
-        <v>0.999978516821512</v>
+        <v>1.000001317208676</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9999484951286397</v>
+        <v>1.000912182632532</v>
       </c>
       <c r="D27">
-        <v>1.000206031305166</v>
+        <v>0.9963512984660673</v>
       </c>
       <c r="E27">
-        <v>0.9999484951286397</v>
+        <v>1.000912182632532</v>
       </c>
       <c r="F27">
-        <v>1.000206031305166</v>
+        <v>0.9963512984660673</v>
       </c>
       <c r="G27">
-        <v>0.9999484951286397</v>
+        <v>1.000912182632532</v>
       </c>
       <c r="H27">
-        <v>0.9998626335217454</v>
+        <v>1.002432459854972</v>
       </c>
       <c r="I27">
-        <v>1.000113318883869</v>
+        <v>0.9979932134917705</v>
       </c>
       <c r="J27">
-        <v>0.9999484951286397</v>
+        <v>1.000912182632532</v>
       </c>
       <c r="K27">
-        <v>0.9999484951286397</v>
+        <v>1.000912182632532</v>
       </c>
       <c r="L27">
-        <v>0.9999484951286397</v>
+        <v>1.000912182632532</v>
       </c>
       <c r="M27">
-        <v>1.000077263216903</v>
+        <v>0.9986317405492997</v>
       </c>
       <c r="N27">
-        <v>1.000077263216903</v>
+        <v>0.9986317405492997</v>
       </c>
       <c r="O27">
-        <v>1.000089281772558</v>
+        <v>0.99841889819679</v>
       </c>
       <c r="P27">
-        <v>1.000034340520815</v>
+        <v>0.9993918879103773</v>
       </c>
       <c r="Q27">
-        <v>1.000034340520815</v>
+        <v>0.9993918879103773</v>
       </c>
       <c r="R27">
-        <v>1.000012879172771</v>
+        <v>0.999771961590916</v>
       </c>
       <c r="S27">
-        <v>1.000012879172771</v>
+        <v>0.999771961590916</v>
       </c>
       <c r="T27">
-        <v>1.000004578182783</v>
+        <v>0.9999189199517344</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.00015171423321</v>
+        <v>1.000241709078032</v>
       </c>
       <c r="D28">
-        <v>0.9993931489191334</v>
+        <v>0.9990331698797065</v>
       </c>
       <c r="E28">
-        <v>1.00015171423321</v>
+        <v>1.000241709078032</v>
       </c>
       <c r="F28">
-        <v>0.9993931489191334</v>
+        <v>0.9990331698797065</v>
       </c>
       <c r="G28">
-        <v>1.00015171423321</v>
+        <v>1.000241709078032</v>
       </c>
       <c r="H28">
-        <v>1.000404573748486</v>
+        <v>1.000644558073614</v>
       </c>
       <c r="I28">
-        <v>0.9996662362099407</v>
+        <v>0.9994682457416542</v>
       </c>
       <c r="J28">
-        <v>1.00015171423321</v>
+        <v>1.000241709078032</v>
       </c>
       <c r="K28">
-        <v>1.00015171423321</v>
+        <v>1.000241709078032</v>
       </c>
       <c r="L28">
-        <v>1.00015171423321</v>
+        <v>1.000241709078032</v>
       </c>
       <c r="M28">
-        <v>0.9997724315761719</v>
+        <v>0.9996374394788694</v>
       </c>
       <c r="N28">
-        <v>0.9997724315761719</v>
+        <v>0.9996374394788694</v>
       </c>
       <c r="O28">
-        <v>0.9997370331207615</v>
+        <v>0.9995810415664644</v>
       </c>
       <c r="P28">
-        <v>0.9998988591285181</v>
+        <v>0.9998388626785903</v>
       </c>
       <c r="Q28">
-        <v>0.9998988591285181</v>
+        <v>0.9998388626785903</v>
       </c>
       <c r="R28">
-        <v>0.9999620729046912</v>
+        <v>0.9999395742784508</v>
       </c>
       <c r="S28">
-        <v>0.9999620729046912</v>
+        <v>0.9999395742784508</v>
       </c>
       <c r="T28">
-        <v>0.9999865169295319</v>
+        <v>0.999978516821512</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="D29">
+        <v>1.000206031305166</v>
+      </c>
+      <c r="E29">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="F29">
+        <v>1.000206031305166</v>
+      </c>
+      <c r="G29">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="H29">
+        <v>0.9998626335217454</v>
+      </c>
+      <c r="I29">
+        <v>1.000113318883869</v>
+      </c>
+      <c r="J29">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="K29">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="L29">
+        <v>0.9999484951286397</v>
+      </c>
+      <c r="M29">
+        <v>1.000077263216903</v>
+      </c>
+      <c r="N29">
+        <v>1.000077263216903</v>
+      </c>
+      <c r="O29">
+        <v>1.000089281772558</v>
+      </c>
+      <c r="P29">
+        <v>1.000034340520815</v>
+      </c>
+      <c r="Q29">
+        <v>1.000034340520815</v>
+      </c>
+      <c r="R29">
+        <v>1.000012879172771</v>
+      </c>
+      <c r="S29">
+        <v>1.000012879172771</v>
+      </c>
+      <c r="T29">
+        <v>1.000004578182783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="D30">
+        <v>0.9993931489191334</v>
+      </c>
+      <c r="E30">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="F30">
+        <v>0.9993931489191334</v>
+      </c>
+      <c r="G30">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="H30">
+        <v>1.000404573748486</v>
+      </c>
+      <c r="I30">
+        <v>0.9996662362099407</v>
+      </c>
+      <c r="J30">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="K30">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="L30">
+        <v>1.00015171423321</v>
+      </c>
+      <c r="M30">
+        <v>0.9997724315761719</v>
+      </c>
+      <c r="N30">
+        <v>0.9997724315761719</v>
+      </c>
+      <c r="O30">
+        <v>0.9997370331207615</v>
+      </c>
+      <c r="P30">
+        <v>0.9998988591285181</v>
+      </c>
+      <c r="Q30">
+        <v>0.9998988591285181</v>
+      </c>
+      <c r="R30">
+        <v>0.9999620729046912</v>
+      </c>
+      <c r="S30">
+        <v>0.9999620729046912</v>
+      </c>
+      <c r="T30">
+        <v>0.9999865169295319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.000301545948111</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9987938612585774</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.000301545948111</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9987938612585774</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.000301545948111</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.00080410189676</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.999336636409397</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.000301545948111</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.000301545948111</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000301545948111</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.999547703603344</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.999547703603344</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9994773478720284</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9997989843849329</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9997989843849329</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9999246247757273</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9999246247757273</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9999732062348441</v>
       </c>
     </row>
